--- a/data-raw/metadata/camp_trap_metadata.xlsx
+++ b/data-raw/metadata/camp_trap_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3691F8E-CB2B-6A45-83BF-8A11446F458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2032797-219F-E544-A4C6-57F085B356C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68640" yWindow="-12120" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="170">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -542,6 +542,9 @@
   <si>
     <t>2022-05-18 02:30:56</t>
   </si>
+  <si>
+    <t>see unit column</t>
+  </si>
 </sst>
 </file>
 
@@ -651,11 +654,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,7 +877,7 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1124,10 +1127,10 @@
         <v>30</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="18" t="s">
         <v>168</v>
       </c>
       <c r="N6" s="1"/>
@@ -1168,10 +1171,10 @@
         <v>30</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="18" t="s">
         <v>168</v>
       </c>
       <c r="N7" s="1"/>
@@ -1761,7 +1764,9 @@
       <c r="F21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2439,7 +2444,7 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
@@ -2467,7 +2472,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -2495,7 +2500,7 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
@@ -2523,7 +2528,7 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>

--- a/data-raw/metadata/camp_trap_metadata.xlsx
+++ b/data-raw/metadata/camp_trap_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2032797-219F-E544-A4C6-57F085B356C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85B3F3A-B6DB-5441-88B5-7E7029750A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68640" yWindow="-12120" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -561,16 +561,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -876,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1773,8 +1776,12 @@
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>

--- a/data-raw/metadata/camp_trap_metadata.xlsx
+++ b/data-raw/metadata/camp_trap_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D69DF3-E4EF-8341-B329-2A527729E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951EF050-982D-F24F-AB2F-555FE1AD6E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="169">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -550,6 +550,9 @@
   <si>
     <t>see unit column</t>
   </si>
+  <si>
+    <t>Knights Landing RST Program</t>
+  </si>
 </sst>
 </file>
 
@@ -882,7 +885,7 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -970,7 +973,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -29470,10 +29473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z993"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29518,15 +29521,15 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>69</v>
+      <c r="B2" s="13" t="s">
+        <v>168</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -29552,12 +29555,12 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>32</v>
@@ -29588,10 +29591,10 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>71</v>
+      <c r="B4" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>32</v>
@@ -29622,10 +29625,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>32</v>
@@ -29656,10 +29659,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>32</v>
@@ -29690,10 +29693,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>32</v>
@@ -29724,10 +29727,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>32</v>
@@ -29758,10 +29761,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>32</v>
@@ -29792,13 +29795,13 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -29826,10 +29829,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>34</v>
@@ -29860,10 +29863,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>34</v>
@@ -29894,10 +29897,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>34</v>
@@ -29928,10 +29931,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>34</v>
@@ -29962,10 +29965,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>34</v>
@@ -29996,13 +29999,13 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -30030,10 +30033,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>36</v>
@@ -30064,10 +30067,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>36</v>
@@ -30098,13 +30101,13 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -30132,10 +30135,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>38</v>
@@ -30166,10 +30169,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>38</v>
@@ -30200,10 +30203,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>38</v>
@@ -30234,13 +30237,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -30268,10 +30271,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>56</v>
@@ -30302,13 +30305,13 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -30336,10 +30339,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>60</v>
@@ -30370,10 +30373,10 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>60</v>
@@ -30404,10 +30407,10 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>60</v>
@@ -30438,10 +30441,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>60</v>
@@ -30472,10 +30475,10 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>60</v>
@@ -30506,10 +30509,10 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>60</v>
@@ -30540,10 +30543,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>60</v>
@@ -30574,10 +30577,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>60</v>
@@ -30608,10 +30611,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>60</v>
@@ -30642,10 +30645,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>60</v>
@@ -30676,13 +30679,13 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -30710,10 +30713,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>58</v>
@@ -30743,14 +30746,14 @@
       <c r="Z37" s="14"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
-        <v>3000</v>
+      <c r="A38" s="12">
+        <v>2</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>96</v>
+      <c r="B38" s="13" t="s">
+        <v>82</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>22</v>
+      <c r="C38" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -30778,10 +30781,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
-        <v>44000</v>
+        <v>3000</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>22</v>
@@ -30812,10 +30815,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
-        <v>52000</v>
+        <v>44000</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>22</v>
@@ -30846,10 +30849,10 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
-        <v>51000</v>
+        <v>52000</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>22</v>
@@ -30880,10 +30883,10 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
-        <v>5000</v>
+        <v>51000</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>22</v>
@@ -30914,10 +30917,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
-        <v>46000</v>
+        <v>5000</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>22</v>
@@ -30948,10 +30951,10 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
-        <v>4000</v>
+        <v>46000</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>22</v>
@@ -30982,10 +30985,10 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
-        <v>45000</v>
+        <v>4000</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>22</v>
@@ -31016,10 +31019,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
-        <v>252</v>
+        <v>45000</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>22</v>
@@ -31050,10 +31053,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>22</v>
@@ -31084,10 +31087,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>22</v>
@@ -31118,10 +31121,10 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
-        <v>53000</v>
+        <v>255</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>22</v>
@@ -31152,10 +31155,10 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
-        <v>54000</v>
+        <v>53000</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>22</v>
@@ -31186,10 +31189,10 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
-        <v>55000</v>
+        <v>54000</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>22</v>
@@ -31220,10 +31223,10 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
-        <v>56000</v>
+        <v>55000</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>22</v>
@@ -31254,10 +31257,10 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
-        <v>50000</v>
+        <v>56000</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>22</v>
@@ -31288,10 +31291,10 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>22</v>
@@ -31322,10 +31325,10 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>22</v>
@@ -31356,10 +31359,10 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
-        <v>43000</v>
+        <v>2000</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>22</v>
@@ -31390,10 +31393,10 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
-        <v>6000</v>
+        <v>43000</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>22</v>
@@ -31424,10 +31427,10 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
-        <v>47000</v>
+        <v>6000</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>22</v>
@@ -31458,10 +31461,10 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
-        <v>90000</v>
+        <v>47000</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>22</v>
@@ -31492,10 +31495,10 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
-        <v>253</v>
+        <v>90000</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>22</v>
@@ -31526,13 +31529,13 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
-        <v>2001</v>
+        <v>253</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
@@ -31560,10 +31563,10 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
-        <v>44018</v>
+        <v>2001</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>24</v>
@@ -31594,10 +31597,10 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
-        <v>44007</v>
+        <v>44018</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>24</v>
@@ -31628,10 +31631,10 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
-        <v>44017</v>
+        <v>44007</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>24</v>
@@ -31662,10 +31665,10 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
-        <v>44016</v>
+        <v>44017</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>24</v>
@@ -31696,10 +31699,10 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
-        <v>44013</v>
+        <v>44016</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>24</v>
@@ -31730,10 +31733,10 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
-        <v>3001</v>
+        <v>44013</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>24</v>
@@ -31764,10 +31767,10 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>24</v>
@@ -31798,10 +31801,10 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
-        <v>52003</v>
+        <v>3002</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>24</v>
@@ -31832,10 +31835,10 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
-        <v>51002</v>
+        <v>52003</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>24</v>
@@ -31866,10 +31869,10 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
-        <v>51003</v>
+        <v>51002</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>24</v>
@@ -31900,10 +31903,10 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
-        <v>52001</v>
+        <v>51003</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>24</v>
@@ -31934,10 +31937,10 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
-        <v>52002</v>
+        <v>52001</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>24</v>
@@ -31968,10 +31971,10 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
-        <v>52004</v>
+        <v>52002</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>24</v>
@@ -32002,10 +32005,10 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
-        <v>90001</v>
+        <v>52004</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>24</v>
@@ -32036,10 +32039,10 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
-        <v>46003</v>
+        <v>90001</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>24</v>
@@ -32070,10 +32073,10 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>24</v>
@@ -32104,10 +32107,10 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
-        <v>46004</v>
+        <v>46001</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>24</v>
@@ -32138,10 +32141,10 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
-        <v>5001</v>
+        <v>46004</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>24</v>
@@ -32172,10 +32175,10 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>24</v>
@@ -32206,10 +32209,10 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>24</v>
@@ -32240,10 +32243,10 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
-        <v>4001</v>
+        <v>5002</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>24</v>
@@ -32274,10 +32277,10 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>24</v>
@@ -32308,10 +32311,10 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
-        <v>44010</v>
+        <v>4002</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>24</v>
@@ -32342,10 +32345,10 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
-        <v>51001</v>
+        <v>44010</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>24</v>
@@ -32376,10 +32379,10 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
-        <v>46002</v>
+        <v>51001</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>24</v>
@@ -32410,10 +32413,10 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
-        <v>43000</v>
+        <v>46002</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>24</v>
@@ -32444,7 +32447,7 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
-        <v>44000</v>
+        <v>43000</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>76</v>
@@ -32478,7 +32481,7 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>76</v>
@@ -32512,7 +32515,7 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>76</v>
@@ -32546,7 +32549,7 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>76</v>
@@ -32580,7 +32583,7 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
-        <v>50000</v>
+        <v>47000</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>76</v>
@@ -32614,7 +32617,7 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
-        <v>51000</v>
+        <v>50000</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>76</v>
@@ -32648,7 +32651,7 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
-        <v>52000</v>
+        <v>51000</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>76</v>
@@ -32682,7 +32685,7 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
-        <v>53000</v>
+        <v>52000</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>76</v>
@@ -32716,7 +32719,7 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
-        <v>54000</v>
+        <v>53000</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>76</v>
@@ -32750,7 +32753,7 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
-        <v>55000</v>
+        <v>54000</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>76</v>
@@ -32784,7 +32787,7 @@
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
-        <v>56000</v>
+        <v>55000</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>76</v>
@@ -32818,7 +32821,7 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
-        <v>90000</v>
+        <v>56000</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>76</v>
@@ -32852,10 +32855,10 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
-        <v>44001</v>
+        <v>90000</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>24</v>
@@ -32886,10 +32889,10 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>24</v>
@@ -32920,10 +32923,10 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>24</v>
@@ -32954,10 +32957,10 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>24</v>
@@ -32988,10 +32991,10 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
-        <v>47002</v>
+        <v>44004</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>24</v>
@@ -33022,10 +33025,10 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
-        <v>47001</v>
+        <v>47002</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>24</v>
@@ -33056,10 +33059,10 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
-        <v>44009</v>
+        <v>47001</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>24</v>
@@ -33090,10 +33093,10 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
-        <v>44006</v>
+        <v>44009</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>24</v>
@@ -33124,10 +33127,10 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>24</v>
@@ -33158,10 +33161,10 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
-        <v>7002</v>
+        <v>44008</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>24</v>
@@ -33192,10 +33195,10 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>24</v>
@@ -33226,10 +33229,10 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
-        <v>44012</v>
+        <v>7003</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>24</v>
@@ -33260,10 +33263,10 @@
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>24</v>
@@ -33294,10 +33297,10 @@
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
-        <v>44011</v>
+        <v>44014</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>24</v>
@@ -33328,10 +33331,10 @@
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
-        <v>44015</v>
+        <v>44011</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>24</v>
@@ -33362,10 +33365,10 @@
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
-        <v>44005</v>
+        <v>44015</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>24</v>
@@ -33396,10 +33399,10 @@
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
-        <v>43001</v>
+        <v>44005</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>24</v>
@@ -33430,10 +33433,10 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16">
-        <v>2004</v>
+        <v>43001</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>24</v>
@@ -33464,10 +33467,10 @@
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>24</v>
@@ -33498,10 +33501,10 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="16">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>24</v>
@@ -33532,10 +33535,10 @@
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="16">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>24</v>
@@ -33566,10 +33569,10 @@
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="16">
-        <v>6002</v>
+        <v>2005</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>24</v>
@@ -33600,10 +33603,10 @@
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="16">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>24</v>
@@ -33633,9 +33636,15 @@
       <c r="Z122" s="14"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="12"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="12"/>
+      <c r="A123" s="16">
+        <v>6003</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
@@ -58020,6 +58029,34 @@
       <c r="Y993" s="14"/>
       <c r="Z993" s="14"/>
     </row>
+    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A994" s="12"/>
+      <c r="B994" s="13"/>
+      <c r="C994" s="12"/>
+      <c r="D994" s="14"/>
+      <c r="E994" s="14"/>
+      <c r="F994" s="14"/>
+      <c r="G994" s="14"/>
+      <c r="H994" s="14"/>
+      <c r="I994" s="14"/>
+      <c r="J994" s="14"/>
+      <c r="K994" s="14"/>
+      <c r="L994" s="14"/>
+      <c r="M994" s="14"/>
+      <c r="N994" s="14"/>
+      <c r="O994" s="14"/>
+      <c r="P994" s="14"/>
+      <c r="Q994" s="14"/>
+      <c r="R994" s="14"/>
+      <c r="S994" s="14"/>
+      <c r="T994" s="14"/>
+      <c r="U994" s="14"/>
+      <c r="V994" s="14"/>
+      <c r="W994" s="14"/>
+      <c r="X994" s="14"/>
+      <c r="Y994" s="14"/>
+      <c r="Z994" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/data-raw/metadata/camp_trap_metadata.xlsx
+++ b/data-raw/metadata/camp_trap_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951EF050-982D-F24F-AB2F-555FE1AD6E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC3BD00-3B07-B341-876F-B0D8830FE130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="148">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -135,28 +135,10 @@
     <t>Date and time of day associated with the trap visit. Definition varies based on visitType (For visitTypeID=1, 2, or 3 this is the date and the time of day the trap began fishing. For visitTypeID=4, 5, or 6 this is the date and the time of day of the end of the visit.)</t>
   </si>
   <si>
-    <t>visitTypeID</t>
-  </si>
-  <si>
-    <t>Work that was done during visit to trap (luVisitType)</t>
-  </si>
-  <si>
-    <t>fishProcessedID</t>
-  </si>
-  <si>
-    <t>Code describing if fish processed during trap visit</t>
-  </si>
-  <si>
     <t>inThalwegID</t>
   </si>
   <si>
     <t>Code for whether trap was sampling in the thalweg of the stream at the beginning of the trap visit (luNoYes)</t>
-  </si>
-  <si>
-    <t>trapFunctioningID</t>
-  </si>
-  <si>
-    <t>Code for description of how well trap is functioning when visit to trap began</t>
   </si>
   <si>
     <t>counterAtStart</t>
@@ -207,24 +189,6 @@
     <t>Number of seconds in the rpm measurement after cleaning trap (normally this will be 60)</t>
   </si>
   <si>
-    <t>halfConeID</t>
-  </si>
-  <si>
-    <t>Code for whether trap was in half cone configuration (luNoYes)</t>
-  </si>
-  <si>
-    <t>includeCatchID</t>
-  </si>
-  <si>
-    <t>Code for whether this record is considered of high enough quality to include in analysis</t>
-  </si>
-  <si>
-    <t>debrisVolumeCatID</t>
-  </si>
-  <si>
-    <t>Code for description of volume of debris removed from live box</t>
-  </si>
-  <si>
     <t>debrisVolume</t>
   </si>
   <si>
@@ -246,48 +210,10 @@
     <t>attribute_name</t>
   </si>
   <si>
-    <t>Start trap and begin trapping [Used when trap had not been operating, or when it is moved or reconfigured. Defines the
-beginning of a sampling period. Fish are never processed during this type of visit.]</t>
-  </si>
-  <si>
-    <t>Continue trapping in same position and configuration without interruption [Used when there is no break in trap operations.
-Defines the break between two sampling periods. Fish are usually processed during this type of visit.]</t>
-  </si>
-  <si>
-    <t>Unplanned restart of trap after malfunction (in same position and configuration) [Used when the trap had stopped
-operating. Defines the break between two sampling periods. Fish are usually processed during this type of visit.]</t>
-  </si>
-  <si>
-    <t>End trapping in current position or configuration [Used when trap is moved or stopped. Defines the end of a sampling
-period. Fish are usually processed during this type of visit.]</t>
-  </si>
-  <si>
-    <t>"Drive by" [Trap is scanned to ensure it is functioning, but fish are not processed and trap is not adjusted. Environmental
-measures may be taken. If a "drive by" results in fish being sampled or trap being serviced, then use an alternative code as
-appropriate. Does not define the beginning or end of a sampling period.]</t>
-  </si>
-  <si>
-    <t>Service / adjust / clean trap [Adjustment is made to trap during a sampling period, such as returning it to desired sampling
-position or removing debris. Does not define the beginning or end of a sampling period. Fish are not processed during this
-type of visit.]</t>
-  </si>
-  <si>
     <t>Not recorded</t>
   </si>
   <si>
     <t>Not applicable (n/a)</t>
-  </si>
-  <si>
-    <t>No fish were caught [If no fish were caught, use this code and enter a record with n=0 for each targeted taxon.]</t>
-  </si>
-  <si>
-    <t>Processed fish [At least one record in CatchRaw should exist for each targeted taxon.]</t>
-  </si>
-  <si>
-    <t>No catch data; fish left in live box [No records in CatchRaw should exist.]</t>
-  </si>
-  <si>
-    <t>No catch data; fish released [No records in CatchRaw should exist.]</t>
   </si>
   <si>
     <t>Yes</t>
@@ -296,40 +222,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Trap functioning normally</t>
-  </si>
-  <si>
-    <t>Trap functioning, but not normally</t>
-  </si>
-  <si>
-    <t>Trap stopped functioning</t>
-  </si>
-  <si>
-    <t>Trap not in service</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Heavy</t>
-  </si>
-  <si>
-    <t>Very Heavy</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>See comments</t>
   </si>
   <si>
     <t>Not yet assigned</t>
@@ -553,6 +446,47 @@
   <si>
     <t>Knights Landing RST Program</t>
   </si>
+  <si>
+    <t>visitType</t>
+  </si>
+  <si>
+    <t>Type of visit. Levels = c("Continue trapping", "End trapping", "Start trap &amp; begin trapping", 
+"Unplanned restart", "Service/adjust/clean trap", "Drive-by only"
+)</t>
+  </si>
+  <si>
+    <t>fishProcessed</t>
+  </si>
+  <si>
+    <t>If fish processed during trap visit. Levels = c("Processed fish", "N/A; not a sampling visit", "No fish were caught", 
+"No catch data; fish released")</t>
+  </si>
+  <si>
+    <t>trapFunctioning</t>
+  </si>
+  <si>
+    <t>Description of how well trap is functioning when visit to trap began. Levels = c("Trap functioning normally", "Trap stopped functioning", "Trap functioning, but not normally", 
+"Trap not in service")</t>
+  </si>
+  <si>
+    <t>halfCone</t>
+  </si>
+  <si>
+    <t>Whether trap was in half cone configuration. Levels = c("No", "Yes")</t>
+  </si>
+  <si>
+    <t>debrisVolumeCat</t>
+  </si>
+  <si>
+    <t>Description of volume of debris removed from live box. c("Partially Blocked", NA, "Clear", "Completely Blocked", "Backed up into Cone", 
+"Not recorded")</t>
+  </si>
+  <si>
+    <t>includeCatch</t>
+  </si>
+  <si>
+    <t>Whether this record is considered of high enough quality to include in analysis. Levels = c("Yes", "No")</t>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -655,9 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -882,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1010"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1135,11 +1066,11 @@
         <v>29</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="17" t="s">
-        <v>165</v>
+      <c r="L6" s="16" t="s">
+        <v>132</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>166</v>
+      <c r="M6" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1179,11 +1110,11 @@
         <v>29</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="17" t="s">
-        <v>165</v>
+      <c r="L7" s="16" t="s">
+        <v>132</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>166</v>
+      <c r="M7" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1237,7 +1168,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1245,22 +1176,32 @@
         <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>18326</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1277,28 +1218,38 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>32404</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1315,28 +1266,38 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1351,30 +1312,30 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1383,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>18326</v>
+        <v>60</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1401,28 +1362,28 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1431,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>32404</v>
+        <v>5</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1455,22 +1416,22 @@
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -1479,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1497,28 +1458,28 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
@@ -1527,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1545,38 +1506,28 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>5</v>
-      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1593,38 +1544,28 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>60</v>
-      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1639,12 +1580,12 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1653,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1679,10 +1620,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -1691,7 +1632,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1717,10 +1658,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -1729,7 +1670,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1755,38 +1696,28 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1803,10 +1734,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -1839,6 +1770,62 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="1"/>
@@ -2288,7 +2275,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -2316,7 +2303,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2344,7 +2331,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2372,7 +2359,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -2456,7 +2443,7 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
@@ -2484,7 +2471,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -2512,7 +2499,7 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
@@ -2540,7 +2527,7 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
@@ -3352,7 +3339,7 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
+      <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -3380,7 +3367,7 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
+      <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -3408,7 +3395,7 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
+      <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
@@ -3436,7 +3423,7 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
+      <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
@@ -3464,7 +3451,7 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
+      <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
@@ -3492,7 +3479,7 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
+      <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
@@ -29279,190 +29266,22 @@
       <c r="Y1004" s="1"/>
       <c r="Z1004" s="1"/>
     </row>
-    <row r="1005" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1005" s="1"/>
-      <c r="B1005" s="1"/>
-      <c r="C1005" s="1"/>
-      <c r="D1005" s="2"/>
-      <c r="E1005" s="1"/>
-      <c r="F1005" s="3"/>
-      <c r="G1005" s="3"/>
-      <c r="H1005" s="3"/>
-      <c r="I1005" s="2"/>
-      <c r="J1005" s="3"/>
-      <c r="K1005" s="2"/>
-      <c r="L1005" s="3"/>
-      <c r="M1005" s="3"/>
-      <c r="N1005" s="1"/>
-      <c r="O1005" s="1"/>
-      <c r="P1005" s="1"/>
-      <c r="Q1005" s="1"/>
-      <c r="R1005" s="1"/>
-      <c r="S1005" s="1"/>
-      <c r="T1005" s="1"/>
-      <c r="U1005" s="1"/>
-      <c r="V1005" s="1"/>
-      <c r="W1005" s="1"/>
-      <c r="X1005" s="1"/>
-      <c r="Y1005" s="1"/>
-      <c r="Z1005" s="1"/>
-    </row>
-    <row r="1006" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1006" s="1"/>
-      <c r="B1006" s="1"/>
-      <c r="C1006" s="1"/>
-      <c r="D1006" s="2"/>
-      <c r="E1006" s="1"/>
-      <c r="F1006" s="3"/>
-      <c r="G1006" s="3"/>
-      <c r="H1006" s="3"/>
-      <c r="I1006" s="2"/>
-      <c r="J1006" s="3"/>
-      <c r="K1006" s="2"/>
-      <c r="L1006" s="3"/>
-      <c r="M1006" s="3"/>
-      <c r="N1006" s="1"/>
-      <c r="O1006" s="1"/>
-      <c r="P1006" s="1"/>
-      <c r="Q1006" s="1"/>
-      <c r="R1006" s="1"/>
-      <c r="S1006" s="1"/>
-      <c r="T1006" s="1"/>
-      <c r="U1006" s="1"/>
-      <c r="V1006" s="1"/>
-      <c r="W1006" s="1"/>
-      <c r="X1006" s="1"/>
-      <c r="Y1006" s="1"/>
-      <c r="Z1006" s="1"/>
-    </row>
-    <row r="1007" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1007" s="1"/>
-      <c r="B1007" s="1"/>
-      <c r="C1007" s="1"/>
-      <c r="D1007" s="2"/>
-      <c r="E1007" s="1"/>
-      <c r="F1007" s="3"/>
-      <c r="G1007" s="3"/>
-      <c r="H1007" s="3"/>
-      <c r="I1007" s="2"/>
-      <c r="J1007" s="3"/>
-      <c r="K1007" s="2"/>
-      <c r="L1007" s="3"/>
-      <c r="M1007" s="3"/>
-      <c r="N1007" s="1"/>
-      <c r="O1007" s="1"/>
-      <c r="P1007" s="1"/>
-      <c r="Q1007" s="1"/>
-      <c r="R1007" s="1"/>
-      <c r="S1007" s="1"/>
-      <c r="T1007" s="1"/>
-      <c r="U1007" s="1"/>
-      <c r="V1007" s="1"/>
-      <c r="W1007" s="1"/>
-      <c r="X1007" s="1"/>
-      <c r="Y1007" s="1"/>
-      <c r="Z1007" s="1"/>
-    </row>
-    <row r="1008" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1008" s="1"/>
-      <c r="B1008" s="1"/>
-      <c r="C1008" s="1"/>
-      <c r="D1008" s="2"/>
-      <c r="E1008" s="1"/>
-      <c r="F1008" s="3"/>
-      <c r="G1008" s="3"/>
-      <c r="H1008" s="3"/>
-      <c r="I1008" s="2"/>
-      <c r="J1008" s="3"/>
-      <c r="K1008" s="2"/>
-      <c r="L1008" s="3"/>
-      <c r="M1008" s="3"/>
-      <c r="N1008" s="1"/>
-      <c r="O1008" s="1"/>
-      <c r="P1008" s="1"/>
-      <c r="Q1008" s="1"/>
-      <c r="R1008" s="1"/>
-      <c r="S1008" s="1"/>
-      <c r="T1008" s="1"/>
-      <c r="U1008" s="1"/>
-      <c r="V1008" s="1"/>
-      <c r="W1008" s="1"/>
-      <c r="X1008" s="1"/>
-      <c r="Y1008" s="1"/>
-      <c r="Z1008" s="1"/>
-    </row>
-    <row r="1009" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1009" s="1"/>
-      <c r="B1009" s="1"/>
-      <c r="C1009" s="1"/>
-      <c r="D1009" s="2"/>
-      <c r="E1009" s="1"/>
-      <c r="F1009" s="3"/>
-      <c r="G1009" s="3"/>
-      <c r="H1009" s="3"/>
-      <c r="I1009" s="2"/>
-      <c r="J1009" s="3"/>
-      <c r="K1009" s="2"/>
-      <c r="L1009" s="3"/>
-      <c r="M1009" s="3"/>
-      <c r="N1009" s="1"/>
-      <c r="O1009" s="1"/>
-      <c r="P1009" s="1"/>
-      <c r="Q1009" s="1"/>
-      <c r="R1009" s="1"/>
-      <c r="S1009" s="1"/>
-      <c r="T1009" s="1"/>
-      <c r="U1009" s="1"/>
-      <c r="V1009" s="1"/>
-      <c r="W1009" s="1"/>
-      <c r="X1009" s="1"/>
-      <c r="Y1009" s="1"/>
-      <c r="Z1009" s="1"/>
-    </row>
-    <row r="1010" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1010" s="1"/>
-      <c r="B1010" s="1"/>
-      <c r="C1010" s="1"/>
-      <c r="D1010" s="2"/>
-      <c r="E1010" s="1"/>
-      <c r="F1010" s="3"/>
-      <c r="G1010" s="3"/>
-      <c r="H1010" s="3"/>
-      <c r="I1010" s="2"/>
-      <c r="J1010" s="3"/>
-      <c r="K1010" s="2"/>
-      <c r="L1010" s="3"/>
-      <c r="M1010" s="3"/>
-      <c r="N1010" s="1"/>
-      <c r="O1010" s="1"/>
-      <c r="P1010" s="1"/>
-      <c r="Q1010" s="1"/>
-      <c r="R1010" s="1"/>
-      <c r="S1010" s="1"/>
-      <c r="T1010" s="1"/>
-      <c r="U1010" s="1"/>
-      <c r="V1010" s="1"/>
-      <c r="W1010" s="1"/>
-      <c r="X1010" s="1"/>
-      <c r="Y1010" s="1"/>
-      <c r="Z1010" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E22 E25:E1010" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E21 E22:E1004" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F22 F25:F1010" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F21 F22:F1004" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C22 C25:C55 C67:C1010" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C61:C1004 C1:C21 C22:C49" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H22 H25:H1010" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H21 H22:H1004" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29473,10 +29292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:Z961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29489,13 +29308,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -29526,7 +29345,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -29555,12 +29374,12 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
     </row>
-    <row r="3" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>69</v>
+      <c r="B3" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>32</v>
@@ -29593,8 +29412,8 @@
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>70</v>
+      <c r="B4" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>32</v>
@@ -29625,10 +29444,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>32</v>
@@ -29658,14 +29477,14 @@
       <c r="Z5" s="14"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>4</v>
+      <c r="A6" s="15">
+        <v>3000</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>72</v>
+      <c r="B6" s="15" t="s">
+        <v>63</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
+      <c r="C6" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -29692,14 +29511,14 @@
       <c r="Z6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>5</v>
+      <c r="A7" s="15">
+        <v>44000</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>73</v>
+      <c r="B7" s="15" t="s">
+        <v>64</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>32</v>
+      <c r="C7" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -29726,14 +29545,14 @@
       <c r="Z7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>6</v>
+      <c r="A8" s="15">
+        <v>52000</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>74</v>
+      <c r="B8" s="15" t="s">
+        <v>65</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>32</v>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -29760,14 +29579,14 @@
       <c r="Z8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>251</v>
+      <c r="A9" s="15">
+        <v>51000</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>75</v>
+      <c r="B9" s="15" t="s">
+        <v>66</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>32</v>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -29794,14 +29613,14 @@
       <c r="Z9" s="14"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>252</v>
+      <c r="A10" s="15">
+        <v>5000</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>76</v>
+      <c r="B10" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>32</v>
+      <c r="C10" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -29828,14 +29647,14 @@
       <c r="Z10" s="14"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>0</v>
+      <c r="A11" s="15">
+        <v>46000</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>77</v>
+      <c r="B11" s="15" t="s">
+        <v>68</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>34</v>
+      <c r="C11" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -29862,14 +29681,14 @@
       <c r="Z11" s="14"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>1</v>
+      <c r="A12" s="15">
+        <v>4000</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>78</v>
+      <c r="B12" s="15" t="s">
+        <v>69</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>34</v>
+      <c r="C12" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -29896,14 +29715,14 @@
       <c r="Z12" s="14"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>2</v>
+      <c r="A13" s="15">
+        <v>45000</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>79</v>
+      <c r="B13" s="15" t="s">
+        <v>70</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>34</v>
+      <c r="C13" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -29930,14 +29749,14 @@
       <c r="Z13" s="14"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>3</v>
+      <c r="A14" s="15">
+        <v>252</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>80</v>
+      <c r="B14" s="15" t="s">
+        <v>71</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>34</v>
+      <c r="C14" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -29964,14 +29783,14 @@
       <c r="Z14" s="14"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="15">
         <v>251</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>75</v>
+      <c r="B15" s="15" t="s">
+        <v>57</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>34</v>
+      <c r="C15" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -29998,14 +29817,14 @@
       <c r="Z15" s="14"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>252</v>
+      <c r="A16" s="15">
+        <v>255</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>76</v>
+      <c r="B16" s="15" t="s">
+        <v>62</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>34</v>
+      <c r="C16" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -30032,14 +29851,14 @@
       <c r="Z16" s="14"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>1</v>
+      <c r="A17" s="15">
+        <v>53000</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>81</v>
+      <c r="B17" s="15" t="s">
+        <v>72</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>36</v>
+      <c r="C17" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -30066,14 +29885,14 @@
       <c r="Z17" s="14"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>2</v>
+      <c r="A18" s="15">
+        <v>54000</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>82</v>
+      <c r="B18" s="15" t="s">
+        <v>73</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>36</v>
+      <c r="C18" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -30100,14 +29919,14 @@
       <c r="Z18" s="14"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>251</v>
+      <c r="A19" s="15">
+        <v>55000</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>75</v>
+      <c r="B19" s="15" t="s">
+        <v>74</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>36</v>
+      <c r="C19" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -30134,14 +29953,14 @@
       <c r="Z19" s="14"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>1</v>
+      <c r="A20" s="15">
+        <v>56000</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>83</v>
+      <c r="B20" s="15" t="s">
+        <v>75</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>38</v>
+      <c r="C20" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -30168,14 +29987,14 @@
       <c r="Z20" s="14"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>2</v>
+      <c r="A21" s="15">
+        <v>50000</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>84</v>
+      <c r="B21" s="15" t="s">
+        <v>76</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>38</v>
+      <c r="C21" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -30202,14 +30021,14 @@
       <c r="Z21" s="14"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>3</v>
+      <c r="A22" s="15">
+        <v>7000</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>85</v>
+      <c r="B22" s="15" t="s">
+        <v>77</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>38</v>
+      <c r="C22" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -30236,14 +30055,14 @@
       <c r="Z22" s="14"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>4</v>
+      <c r="A23" s="15">
+        <v>2000</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>86</v>
+      <c r="B23" s="15" t="s">
+        <v>78</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>38</v>
+      <c r="C23" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -30270,14 +30089,14 @@
       <c r="Z23" s="14"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>1</v>
+      <c r="A24" s="15">
+        <v>43000</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>81</v>
+      <c r="B24" s="15" t="s">
+        <v>79</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>56</v>
+      <c r="C24" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -30304,14 +30123,14 @@
       <c r="Z24" s="14"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>2</v>
+      <c r="A25" s="15">
+        <v>6000</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>82</v>
+      <c r="B25" s="15" t="s">
+        <v>80</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>56</v>
+      <c r="C25" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -30338,14 +30157,14 @@
       <c r="Z25" s="14"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>0</v>
+      <c r="A26" s="15">
+        <v>47000</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>87</v>
+      <c r="B26" s="15" t="s">
+        <v>81</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>60</v>
+      <c r="C26" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -30372,14 +30191,14 @@
       <c r="Z26" s="14"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>1</v>
+      <c r="A27" s="15">
+        <v>90000</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>88</v>
+      <c r="B27" s="15" t="s">
+        <v>82</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>60</v>
+      <c r="C27" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -30406,14 +30225,14 @@
       <c r="Z27" s="14"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>2</v>
+      <c r="A28" s="15">
+        <v>253</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>89</v>
+      <c r="B28" s="15" t="s">
+        <v>61</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>60</v>
+      <c r="C28" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -30440,14 +30259,14 @@
       <c r="Z28" s="14"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>3</v>
+      <c r="A29" s="15">
+        <v>2001</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>90</v>
+      <c r="B29" s="15" t="s">
+        <v>83</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>60</v>
+      <c r="C29" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -30474,14 +30293,14 @@
       <c r="Z29" s="14"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>4</v>
+      <c r="A30" s="15">
+        <v>44018</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>91</v>
+      <c r="B30" s="15" t="s">
+        <v>84</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>60</v>
+      <c r="C30" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -30508,14 +30327,14 @@
       <c r="Z30" s="14"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>250</v>
+      <c r="A31" s="15">
+        <v>44007</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>92</v>
+      <c r="B31" s="15" t="s">
+        <v>85</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>60</v>
+      <c r="C31" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -30542,14 +30361,14 @@
       <c r="Z31" s="14"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
-        <v>251</v>
+      <c r="A32" s="15">
+        <v>44017</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>75</v>
+      <c r="B32" s="15" t="s">
+        <v>86</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>60</v>
+      <c r="C32" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -30576,14 +30395,14 @@
       <c r="Z32" s="14"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
-        <v>252</v>
+      <c r="A33" s="15">
+        <v>44016</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>76</v>
+      <c r="B33" s="15" t="s">
+        <v>87</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>60</v>
+      <c r="C33" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -30610,14 +30429,14 @@
       <c r="Z33" s="14"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>253</v>
+      <c r="A34" s="15">
+        <v>44013</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>93</v>
+      <c r="B34" s="15" t="s">
+        <v>88</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>60</v>
+      <c r="C34" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -30644,14 +30463,14 @@
       <c r="Z34" s="14"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>254</v>
+      <c r="A35" s="15">
+        <v>3001</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>94</v>
+      <c r="B35" s="15" t="s">
+        <v>89</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>60</v>
+      <c r="C35" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -30678,14 +30497,14 @@
       <c r="Z35" s="14"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>255</v>
+      <c r="A36" s="15">
+        <v>3002</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>95</v>
+      <c r="B36" s="15" t="s">
+        <v>90</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>60</v>
+      <c r="C36" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -30712,14 +30531,14 @@
       <c r="Z36" s="14"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>1</v>
+      <c r="A37" s="15">
+        <v>52003</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>81</v>
+      <c r="B37" s="15" t="s">
+        <v>91</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>58</v>
+      <c r="C37" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -30746,14 +30565,14 @@
       <c r="Z37" s="14"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>2</v>
+      <c r="A38" s="15">
+        <v>51002</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>82</v>
+      <c r="B38" s="15" t="s">
+        <v>92</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>58</v>
+      <c r="C38" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -30780,14 +30599,14 @@
       <c r="Z38" s="14"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16">
-        <v>3000</v>
+      <c r="A39" s="15">
+        <v>51003</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>96</v>
+      <c r="B39" s="15" t="s">
+        <v>93</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>22</v>
+      <c r="C39" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -30814,14 +30633,14 @@
       <c r="Z39" s="14"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
-        <v>44000</v>
+      <c r="A40" s="15">
+        <v>52001</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>97</v>
+      <c r="B40" s="15" t="s">
+        <v>94</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>22</v>
+      <c r="C40" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -30848,14 +30667,14 @@
       <c r="Z40" s="14"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
-        <v>52000</v>
+      <c r="A41" s="15">
+        <v>52002</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>98</v>
+      <c r="B41" s="15" t="s">
+        <v>95</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>22</v>
+      <c r="C41" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -30882,14 +30701,14 @@
       <c r="Z41" s="14"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
-        <v>51000</v>
+      <c r="A42" s="15">
+        <v>52004</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>99</v>
+      <c r="B42" s="15" t="s">
+        <v>96</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>22</v>
+      <c r="C42" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -30916,14 +30735,14 @@
       <c r="Z42" s="14"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
-        <v>5000</v>
+      <c r="A43" s="15">
+        <v>90001</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>100</v>
+      <c r="B43" s="15" t="s">
+        <v>97</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>22</v>
+      <c r="C43" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -30950,14 +30769,14 @@
       <c r="Z43" s="14"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16">
-        <v>46000</v>
+      <c r="A44" s="15">
+        <v>46003</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>101</v>
+      <c r="B44" s="15" t="s">
+        <v>98</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>22</v>
+      <c r="C44" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -30984,14 +30803,14 @@
       <c r="Z44" s="14"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
-        <v>4000</v>
+      <c r="A45" s="15">
+        <v>46001</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>102</v>
+      <c r="B45" s="15" t="s">
+        <v>99</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>22</v>
+      <c r="C45" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -31018,14 +30837,14 @@
       <c r="Z45" s="14"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
-        <v>45000</v>
+      <c r="A46" s="15">
+        <v>46004</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>103</v>
+      <c r="B46" s="15" t="s">
+        <v>100</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>22</v>
+      <c r="C46" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -31052,14 +30871,14 @@
       <c r="Z46" s="14"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
-        <v>252</v>
+      <c r="A47" s="15">
+        <v>5001</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>104</v>
+      <c r="B47" s="15" t="s">
+        <v>101</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>22</v>
+      <c r="C47" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -31086,14 +30905,14 @@
       <c r="Z47" s="14"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
-        <v>251</v>
+      <c r="A48" s="15">
+        <v>5003</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>75</v>
+      <c r="B48" s="15" t="s">
+        <v>102</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>22</v>
+      <c r="C48" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -31120,14 +30939,14 @@
       <c r="Z48" s="14"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
-        <v>255</v>
+      <c r="A49" s="15">
+        <v>5002</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>95</v>
+      <c r="B49" s="15" t="s">
+        <v>103</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>22</v>
+      <c r="C49" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -31154,14 +30973,14 @@
       <c r="Z49" s="14"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16">
-        <v>53000</v>
+      <c r="A50" s="15">
+        <v>4001</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>105</v>
+      <c r="B50" s="15" t="s">
+        <v>69</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>22</v>
+      <c r="C50" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -31188,14 +31007,14 @@
       <c r="Z50" s="14"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16">
-        <v>54000</v>
+      <c r="A51" s="15">
+        <v>4002</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>106</v>
+      <c r="B51" s="15" t="s">
+        <v>104</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>22</v>
+      <c r="C51" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -31222,14 +31041,14 @@
       <c r="Z51" s="14"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
-        <v>55000</v>
+      <c r="A52" s="15">
+        <v>44010</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>107</v>
+      <c r="B52" s="15" t="s">
+        <v>105</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>22</v>
+      <c r="C52" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
@@ -31256,14 +31075,14 @@
       <c r="Z52" s="14"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16">
-        <v>56000</v>
+      <c r="A53" s="15">
+        <v>51001</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>108</v>
+      <c r="B53" s="15" t="s">
+        <v>106</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>22</v>
+      <c r="C53" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
@@ -31290,14 +31109,14 @@
       <c r="Z53" s="14"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
-        <v>50000</v>
+      <c r="A54" s="15">
+        <v>46002</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>109</v>
+      <c r="B54" s="15" t="s">
+        <v>107</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>22</v>
+      <c r="C54" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
@@ -31324,14 +31143,14 @@
       <c r="Z54" s="14"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
-        <v>7000</v>
+      <c r="A55" s="15">
+        <v>43000</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>110</v>
+      <c r="B55" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>22</v>
+      <c r="C55" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
@@ -31358,14 +31177,14 @@
       <c r="Z55" s="14"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
-        <v>2000</v>
+      <c r="A56" s="15">
+        <v>44000</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>111</v>
+      <c r="B56" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>22</v>
+      <c r="C56" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -31392,14 +31211,14 @@
       <c r="Z56" s="14"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16">
-        <v>43000</v>
+      <c r="A57" s="15">
+        <v>45000</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>112</v>
+      <c r="B57" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>22</v>
+      <c r="C57" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
@@ -31426,14 +31245,14 @@
       <c r="Z57" s="14"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16">
-        <v>6000</v>
+      <c r="A58" s="15">
+        <v>46000</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>113</v>
+      <c r="B58" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>22</v>
+      <c r="C58" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
@@ -31460,14 +31279,14 @@
       <c r="Z58" s="14"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <v>47000</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>114</v>
+      <c r="B59" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>22</v>
+      <c r="C59" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
@@ -31494,14 +31313,14 @@
       <c r="Z59" s="14"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16">
-        <v>90000</v>
+      <c r="A60" s="15">
+        <v>50000</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>115</v>
+      <c r="B60" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>22</v>
+      <c r="C60" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
@@ -31528,14 +31347,14 @@
       <c r="Z60" s="14"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16">
-        <v>253</v>
+      <c r="A61" s="15">
+        <v>51000</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>93</v>
+      <c r="B61" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>22</v>
+      <c r="C61" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
@@ -31562,13 +31381,13 @@
       <c r="Z61" s="14"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16">
-        <v>2001</v>
+      <c r="A62" s="15">
+        <v>52000</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>116</v>
+      <c r="B62" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="14"/>
@@ -31596,13 +31415,13 @@
       <c r="Z62" s="14"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16">
-        <v>44018</v>
+      <c r="A63" s="15">
+        <v>53000</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>117</v>
+      <c r="B63" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="14"/>
@@ -31630,13 +31449,13 @@
       <c r="Z63" s="14"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="16">
-        <v>44007</v>
+      <c r="A64" s="15">
+        <v>54000</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>118</v>
+      <c r="B64" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="14"/>
@@ -31664,13 +31483,13 @@
       <c r="Z64" s="14"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16">
-        <v>44017</v>
+      <c r="A65" s="15">
+        <v>55000</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>119</v>
+      <c r="B65" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="14"/>
@@ -31698,13 +31517,13 @@
       <c r="Z65" s="14"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16">
-        <v>44016</v>
+      <c r="A66" s="15">
+        <v>56000</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>120</v>
+      <c r="B66" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="14"/>
@@ -31732,13 +31551,13 @@
       <c r="Z66" s="14"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16">
-        <v>44013</v>
+      <c r="A67" s="15">
+        <v>90000</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>121</v>
+      <c r="B67" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D67" s="14"/>
@@ -31766,13 +31585,13 @@
       <c r="Z67" s="14"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="16">
-        <v>3001</v>
+      <c r="A68" s="15">
+        <v>44001</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>122</v>
+      <c r="B68" s="15" t="s">
+        <v>108</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="14"/>
@@ -31800,13 +31619,13 @@
       <c r="Z68" s="14"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="16">
-        <v>3002</v>
+      <c r="A69" s="15">
+        <v>44003</v>
       </c>
-      <c r="B69" s="16" t="s">
-        <v>123</v>
+      <c r="B69" s="15" t="s">
+        <v>109</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="14"/>
@@ -31834,13 +31653,13 @@
       <c r="Z69" s="14"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="16">
-        <v>52003</v>
+      <c r="A70" s="15">
+        <v>44002</v>
       </c>
-      <c r="B70" s="16" t="s">
-        <v>124</v>
+      <c r="B70" s="15" t="s">
+        <v>110</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="14"/>
@@ -31868,13 +31687,13 @@
       <c r="Z70" s="14"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16">
-        <v>51002</v>
+      <c r="A71" s="15">
+        <v>44004</v>
       </c>
-      <c r="B71" s="16" t="s">
-        <v>125</v>
+      <c r="B71" s="15" t="s">
+        <v>111</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="14"/>
@@ -31902,13 +31721,13 @@
       <c r="Z71" s="14"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16">
-        <v>51003</v>
+      <c r="A72" s="15">
+        <v>47002</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>126</v>
+      <c r="B72" s="15" t="s">
+        <v>112</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D72" s="14"/>
@@ -31936,13 +31755,13 @@
       <c r="Z72" s="14"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16">
-        <v>52001</v>
+      <c r="A73" s="15">
+        <v>47001</v>
       </c>
-      <c r="B73" s="16" t="s">
-        <v>127</v>
+      <c r="B73" s="15" t="s">
+        <v>113</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="14"/>
@@ -31970,13 +31789,13 @@
       <c r="Z73" s="14"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16">
-        <v>52002</v>
+      <c r="A74" s="15">
+        <v>44009</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>128</v>
+      <c r="B74" s="15" t="s">
+        <v>114</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D74" s="14"/>
@@ -32004,13 +31823,13 @@
       <c r="Z74" s="14"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16">
-        <v>52004</v>
+      <c r="A75" s="15">
+        <v>44006</v>
       </c>
-      <c r="B75" s="16" t="s">
-        <v>129</v>
+      <c r="B75" s="15" t="s">
+        <v>115</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="14"/>
@@ -32038,13 +31857,13 @@
       <c r="Z75" s="14"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16">
-        <v>90001</v>
+      <c r="A76" s="15">
+        <v>44008</v>
       </c>
-      <c r="B76" s="16" t="s">
-        <v>130</v>
+      <c r="B76" s="15" t="s">
+        <v>116</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="14"/>
@@ -32072,13 +31891,13 @@
       <c r="Z76" s="14"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16">
-        <v>46003</v>
+      <c r="A77" s="15">
+        <v>7002</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>131</v>
+      <c r="B77" s="15" t="s">
+        <v>117</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D77" s="14"/>
@@ -32106,13 +31925,13 @@
       <c r="Z77" s="14"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16">
-        <v>46001</v>
+      <c r="A78" s="15">
+        <v>7003</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>132</v>
+      <c r="B78" s="15" t="s">
+        <v>118</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="14"/>
@@ -32140,13 +31959,13 @@
       <c r="Z78" s="14"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16">
-        <v>46004</v>
+      <c r="A79" s="15">
+        <v>44012</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>133</v>
+      <c r="B79" s="15" t="s">
+        <v>119</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="14"/>
@@ -32174,13 +31993,13 @@
       <c r="Z79" s="14"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16">
-        <v>5001</v>
+      <c r="A80" s="15">
+        <v>44014</v>
       </c>
-      <c r="B80" s="16" t="s">
-        <v>134</v>
+      <c r="B80" s="15" t="s">
+        <v>120</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D80" s="14"/>
@@ -32208,13 +32027,13 @@
       <c r="Z80" s="14"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="16">
-        <v>5003</v>
+      <c r="A81" s="15">
+        <v>44011</v>
       </c>
-      <c r="B81" s="16" t="s">
-        <v>135</v>
+      <c r="B81" s="15" t="s">
+        <v>121</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D81" s="14"/>
@@ -32242,13 +32061,13 @@
       <c r="Z81" s="14"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16">
-        <v>5002</v>
+      <c r="A82" s="15">
+        <v>44015</v>
       </c>
-      <c r="B82" s="16" t="s">
-        <v>136</v>
+      <c r="B82" s="15" t="s">
+        <v>122</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="14"/>
@@ -32276,13 +32095,13 @@
       <c r="Z82" s="14"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16">
-        <v>4001</v>
+      <c r="A83" s="15">
+        <v>44005</v>
       </c>
-      <c r="B83" s="16" t="s">
-        <v>102</v>
+      <c r="B83" s="15" t="s">
+        <v>123</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D83" s="14"/>
@@ -32310,13 +32129,13 @@
       <c r="Z83" s="14"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="16">
-        <v>4002</v>
+      <c r="A84" s="15">
+        <v>43001</v>
       </c>
-      <c r="B84" s="16" t="s">
-        <v>137</v>
+      <c r="B84" s="15" t="s">
+        <v>124</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="14"/>
@@ -32344,13 +32163,13 @@
       <c r="Z84" s="14"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="16">
-        <v>44010</v>
+      <c r="A85" s="15">
+        <v>2004</v>
       </c>
-      <c r="B85" s="16" t="s">
-        <v>138</v>
+      <c r="B85" s="15" t="s">
+        <v>125</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D85" s="14"/>
@@ -32378,13 +32197,13 @@
       <c r="Z85" s="14"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="16">
-        <v>51001</v>
+      <c r="A86" s="15">
+        <v>2003</v>
       </c>
-      <c r="B86" s="16" t="s">
-        <v>139</v>
+      <c r="B86" s="15" t="s">
+        <v>126</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D86" s="14"/>
@@ -32412,13 +32231,13 @@
       <c r="Z86" s="14"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="16">
-        <v>46002</v>
+      <c r="A87" s="15">
+        <v>2002</v>
       </c>
-      <c r="B87" s="16" t="s">
-        <v>140</v>
+      <c r="B87" s="15" t="s">
+        <v>127</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D87" s="14"/>
@@ -32446,13 +32265,13 @@
       <c r="Z87" s="14"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="16">
-        <v>43000</v>
+      <c r="A88" s="15">
+        <v>2005</v>
       </c>
-      <c r="B88" s="16" t="s">
-        <v>76</v>
+      <c r="B88" s="15" t="s">
+        <v>128</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="14"/>
@@ -32480,13 +32299,13 @@
       <c r="Z88" s="14"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="16">
-        <v>44000</v>
+      <c r="A89" s="15">
+        <v>6002</v>
       </c>
-      <c r="B89" s="16" t="s">
-        <v>76</v>
+      <c r="B89" s="15" t="s">
+        <v>129</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="14"/>
@@ -32514,13 +32333,13 @@
       <c r="Z89" s="14"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16">
-        <v>45000</v>
+      <c r="A90" s="15">
+        <v>6003</v>
       </c>
-      <c r="B90" s="16" t="s">
-        <v>76</v>
+      <c r="B90" s="15" t="s">
+        <v>130</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D90" s="14"/>
@@ -32548,15 +32367,9 @@
       <c r="Z90" s="14"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16">
-        <v>46000</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="12"/>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
@@ -32582,15 +32395,9 @@
       <c r="Z91" s="14"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="16">
-        <v>47000</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="12"/>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
@@ -32616,15 +32423,9 @@
       <c r="Z92" s="14"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="16">
-        <v>50000</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="12"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
@@ -32650,15 +32451,9 @@
       <c r="Z93" s="14"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="16">
-        <v>51000</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="12"/>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
@@ -32684,15 +32479,9 @@
       <c r="Z94" s="14"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="16">
-        <v>52000</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
@@ -32718,15 +32507,9 @@
       <c r="Z95" s="14"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="16">
-        <v>53000</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="12"/>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
@@ -32752,15 +32535,9 @@
       <c r="Z96" s="14"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="16">
-        <v>54000</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="12"/>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
@@ -32786,15 +32563,9 @@
       <c r="Z97" s="14"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="16">
-        <v>55000</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="12"/>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
@@ -32820,15 +32591,9 @@
       <c r="Z98" s="14"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="16">
-        <v>56000</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A99" s="12"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="12"/>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
@@ -32854,15 +32619,9 @@
       <c r="Z99" s="14"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="16">
-        <v>90000</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A100" s="12"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
@@ -32888,15 +32647,9 @@
       <c r="Z100" s="14"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="16">
-        <v>44001</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A101" s="12"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
@@ -32922,15 +32675,9 @@
       <c r="Z101" s="14"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="16">
-        <v>44003</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A102" s="12"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="12"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
@@ -32956,15 +32703,9 @@
       <c r="Z102" s="14"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="16">
-        <v>44002</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A103" s="12"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="12"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
@@ -32990,15 +32731,9 @@
       <c r="Z103" s="14"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="16">
-        <v>44004</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A104" s="12"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
@@ -33024,15 +32759,9 @@
       <c r="Z104" s="14"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="16">
-        <v>47002</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A105" s="12"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="12"/>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
@@ -33058,15 +32787,9 @@
       <c r="Z105" s="14"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="16">
-        <v>47001</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A106" s="12"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="12"/>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
@@ -33092,15 +32815,9 @@
       <c r="Z106" s="14"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="16">
-        <v>44009</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A107" s="12"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
@@ -33126,15 +32843,9 @@
       <c r="Z107" s="14"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="16">
-        <v>44006</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A108" s="12"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
@@ -33160,15 +32871,9 @@
       <c r="Z108" s="14"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="16">
-        <v>44008</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A109" s="12"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
@@ -33194,15 +32899,9 @@
       <c r="Z109" s="14"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="16">
-        <v>7002</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
@@ -33228,15 +32927,9 @@
       <c r="Z110" s="14"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="16">
-        <v>7003</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A111" s="12"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="12"/>
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
@@ -33262,15 +32955,9 @@
       <c r="Z111" s="14"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="16">
-        <v>44012</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A112" s="12"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
@@ -33296,15 +32983,9 @@
       <c r="Z112" s="14"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="16">
-        <v>44014</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A113" s="12"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
@@ -33330,15 +33011,9 @@
       <c r="Z113" s="14"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="16">
-        <v>44011</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A114" s="12"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
@@ -33364,15 +33039,9 @@
       <c r="Z114" s="14"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="16">
-        <v>44015</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A115" s="12"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
@@ -33398,15 +33067,9 @@
       <c r="Z115" s="14"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="16">
-        <v>44005</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A116" s="12"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
@@ -33432,15 +33095,9 @@
       <c r="Z116" s="14"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="16">
-        <v>43001</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A117" s="12"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="12"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
@@ -33466,15 +33123,9 @@
       <c r="Z117" s="14"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="16">
-        <v>2004</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A118" s="12"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="12"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
@@ -33500,15 +33151,9 @@
       <c r="Z118" s="14"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="16">
-        <v>2003</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A119" s="12"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="12"/>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
@@ -33534,15 +33179,9 @@
       <c r="Z119" s="14"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="16">
-        <v>2002</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="12"/>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
@@ -33568,15 +33207,9 @@
       <c r="Z120" s="14"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="16">
-        <v>2005</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A121" s="12"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
@@ -33602,15 +33235,9 @@
       <c r="Z121" s="14"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="16">
-        <v>6002</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A122" s="12"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="12"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
@@ -33636,15 +33263,9 @@
       <c r="Z122" s="14"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="16">
-        <v>6003</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="A123" s="12"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="12"/>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
@@ -57133,930 +56754,6 @@
       <c r="Y961" s="14"/>
       <c r="Z961" s="14"/>
     </row>
-    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A962" s="12"/>
-      <c r="B962" s="13"/>
-      <c r="C962" s="12"/>
-      <c r="D962" s="14"/>
-      <c r="E962" s="14"/>
-      <c r="F962" s="14"/>
-      <c r="G962" s="14"/>
-      <c r="H962" s="14"/>
-      <c r="I962" s="14"/>
-      <c r="J962" s="14"/>
-      <c r="K962" s="14"/>
-      <c r="L962" s="14"/>
-      <c r="M962" s="14"/>
-      <c r="N962" s="14"/>
-      <c r="O962" s="14"/>
-      <c r="P962" s="14"/>
-      <c r="Q962" s="14"/>
-      <c r="R962" s="14"/>
-      <c r="S962" s="14"/>
-      <c r="T962" s="14"/>
-      <c r="U962" s="14"/>
-      <c r="V962" s="14"/>
-      <c r="W962" s="14"/>
-      <c r="X962" s="14"/>
-      <c r="Y962" s="14"/>
-      <c r="Z962" s="14"/>
-    </row>
-    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A963" s="12"/>
-      <c r="B963" s="13"/>
-      <c r="C963" s="12"/>
-      <c r="D963" s="14"/>
-      <c r="E963" s="14"/>
-      <c r="F963" s="14"/>
-      <c r="G963" s="14"/>
-      <c r="H963" s="14"/>
-      <c r="I963" s="14"/>
-      <c r="J963" s="14"/>
-      <c r="K963" s="14"/>
-      <c r="L963" s="14"/>
-      <c r="M963" s="14"/>
-      <c r="N963" s="14"/>
-      <c r="O963" s="14"/>
-      <c r="P963" s="14"/>
-      <c r="Q963" s="14"/>
-      <c r="R963" s="14"/>
-      <c r="S963" s="14"/>
-      <c r="T963" s="14"/>
-      <c r="U963" s="14"/>
-      <c r="V963" s="14"/>
-      <c r="W963" s="14"/>
-      <c r="X963" s="14"/>
-      <c r="Y963" s="14"/>
-      <c r="Z963" s="14"/>
-    </row>
-    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A964" s="12"/>
-      <c r="B964" s="13"/>
-      <c r="C964" s="12"/>
-      <c r="D964" s="14"/>
-      <c r="E964" s="14"/>
-      <c r="F964" s="14"/>
-      <c r="G964" s="14"/>
-      <c r="H964" s="14"/>
-      <c r="I964" s="14"/>
-      <c r="J964" s="14"/>
-      <c r="K964" s="14"/>
-      <c r="L964" s="14"/>
-      <c r="M964" s="14"/>
-      <c r="N964" s="14"/>
-      <c r="O964" s="14"/>
-      <c r="P964" s="14"/>
-      <c r="Q964" s="14"/>
-      <c r="R964" s="14"/>
-      <c r="S964" s="14"/>
-      <c r="T964" s="14"/>
-      <c r="U964" s="14"/>
-      <c r="V964" s="14"/>
-      <c r="W964" s="14"/>
-      <c r="X964" s="14"/>
-      <c r="Y964" s="14"/>
-      <c r="Z964" s="14"/>
-    </row>
-    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A965" s="12"/>
-      <c r="B965" s="13"/>
-      <c r="C965" s="12"/>
-      <c r="D965" s="14"/>
-      <c r="E965" s="14"/>
-      <c r="F965" s="14"/>
-      <c r="G965" s="14"/>
-      <c r="H965" s="14"/>
-      <c r="I965" s="14"/>
-      <c r="J965" s="14"/>
-      <c r="K965" s="14"/>
-      <c r="L965" s="14"/>
-      <c r="M965" s="14"/>
-      <c r="N965" s="14"/>
-      <c r="O965" s="14"/>
-      <c r="P965" s="14"/>
-      <c r="Q965" s="14"/>
-      <c r="R965" s="14"/>
-      <c r="S965" s="14"/>
-      <c r="T965" s="14"/>
-      <c r="U965" s="14"/>
-      <c r="V965" s="14"/>
-      <c r="W965" s="14"/>
-      <c r="X965" s="14"/>
-      <c r="Y965" s="14"/>
-      <c r="Z965" s="14"/>
-    </row>
-    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A966" s="12"/>
-      <c r="B966" s="13"/>
-      <c r="C966" s="12"/>
-      <c r="D966" s="14"/>
-      <c r="E966" s="14"/>
-      <c r="F966" s="14"/>
-      <c r="G966" s="14"/>
-      <c r="H966" s="14"/>
-      <c r="I966" s="14"/>
-      <c r="J966" s="14"/>
-      <c r="K966" s="14"/>
-      <c r="L966" s="14"/>
-      <c r="M966" s="14"/>
-      <c r="N966" s="14"/>
-      <c r="O966" s="14"/>
-      <c r="P966" s="14"/>
-      <c r="Q966" s="14"/>
-      <c r="R966" s="14"/>
-      <c r="S966" s="14"/>
-      <c r="T966" s="14"/>
-      <c r="U966" s="14"/>
-      <c r="V966" s="14"/>
-      <c r="W966" s="14"/>
-      <c r="X966" s="14"/>
-      <c r="Y966" s="14"/>
-      <c r="Z966" s="14"/>
-    </row>
-    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A967" s="12"/>
-      <c r="B967" s="13"/>
-      <c r="C967" s="12"/>
-      <c r="D967" s="14"/>
-      <c r="E967" s="14"/>
-      <c r="F967" s="14"/>
-      <c r="G967" s="14"/>
-      <c r="H967" s="14"/>
-      <c r="I967" s="14"/>
-      <c r="J967" s="14"/>
-      <c r="K967" s="14"/>
-      <c r="L967" s="14"/>
-      <c r="M967" s="14"/>
-      <c r="N967" s="14"/>
-      <c r="O967" s="14"/>
-      <c r="P967" s="14"/>
-      <c r="Q967" s="14"/>
-      <c r="R967" s="14"/>
-      <c r="S967" s="14"/>
-      <c r="T967" s="14"/>
-      <c r="U967" s="14"/>
-      <c r="V967" s="14"/>
-      <c r="W967" s="14"/>
-      <c r="X967" s="14"/>
-      <c r="Y967" s="14"/>
-      <c r="Z967" s="14"/>
-    </row>
-    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A968" s="12"/>
-      <c r="B968" s="13"/>
-      <c r="C968" s="12"/>
-      <c r="D968" s="14"/>
-      <c r="E968" s="14"/>
-      <c r="F968" s="14"/>
-      <c r="G968" s="14"/>
-      <c r="H968" s="14"/>
-      <c r="I968" s="14"/>
-      <c r="J968" s="14"/>
-      <c r="K968" s="14"/>
-      <c r="L968" s="14"/>
-      <c r="M968" s="14"/>
-      <c r="N968" s="14"/>
-      <c r="O968" s="14"/>
-      <c r="P968" s="14"/>
-      <c r="Q968" s="14"/>
-      <c r="R968" s="14"/>
-      <c r="S968" s="14"/>
-      <c r="T968" s="14"/>
-      <c r="U968" s="14"/>
-      <c r="V968" s="14"/>
-      <c r="W968" s="14"/>
-      <c r="X968" s="14"/>
-      <c r="Y968" s="14"/>
-      <c r="Z968" s="14"/>
-    </row>
-    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A969" s="12"/>
-      <c r="B969" s="13"/>
-      <c r="C969" s="12"/>
-      <c r="D969" s="14"/>
-      <c r="E969" s="14"/>
-      <c r="F969" s="14"/>
-      <c r="G969" s="14"/>
-      <c r="H969" s="14"/>
-      <c r="I969" s="14"/>
-      <c r="J969" s="14"/>
-      <c r="K969" s="14"/>
-      <c r="L969" s="14"/>
-      <c r="M969" s="14"/>
-      <c r="N969" s="14"/>
-      <c r="O969" s="14"/>
-      <c r="P969" s="14"/>
-      <c r="Q969" s="14"/>
-      <c r="R969" s="14"/>
-      <c r="S969" s="14"/>
-      <c r="T969" s="14"/>
-      <c r="U969" s="14"/>
-      <c r="V969" s="14"/>
-      <c r="W969" s="14"/>
-      <c r="X969" s="14"/>
-      <c r="Y969" s="14"/>
-      <c r="Z969" s="14"/>
-    </row>
-    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A970" s="12"/>
-      <c r="B970" s="13"/>
-      <c r="C970" s="12"/>
-      <c r="D970" s="14"/>
-      <c r="E970" s="14"/>
-      <c r="F970" s="14"/>
-      <c r="G970" s="14"/>
-      <c r="H970" s="14"/>
-      <c r="I970" s="14"/>
-      <c r="J970" s="14"/>
-      <c r="K970" s="14"/>
-      <c r="L970" s="14"/>
-      <c r="M970" s="14"/>
-      <c r="N970" s="14"/>
-      <c r="O970" s="14"/>
-      <c r="P970" s="14"/>
-      <c r="Q970" s="14"/>
-      <c r="R970" s="14"/>
-      <c r="S970" s="14"/>
-      <c r="T970" s="14"/>
-      <c r="U970" s="14"/>
-      <c r="V970" s="14"/>
-      <c r="W970" s="14"/>
-      <c r="X970" s="14"/>
-      <c r="Y970" s="14"/>
-      <c r="Z970" s="14"/>
-    </row>
-    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A971" s="12"/>
-      <c r="B971" s="13"/>
-      <c r="C971" s="12"/>
-      <c r="D971" s="14"/>
-      <c r="E971" s="14"/>
-      <c r="F971" s="14"/>
-      <c r="G971" s="14"/>
-      <c r="H971" s="14"/>
-      <c r="I971" s="14"/>
-      <c r="J971" s="14"/>
-      <c r="K971" s="14"/>
-      <c r="L971" s="14"/>
-      <c r="M971" s="14"/>
-      <c r="N971" s="14"/>
-      <c r="O971" s="14"/>
-      <c r="P971" s="14"/>
-      <c r="Q971" s="14"/>
-      <c r="R971" s="14"/>
-      <c r="S971" s="14"/>
-      <c r="T971" s="14"/>
-      <c r="U971" s="14"/>
-      <c r="V971" s="14"/>
-      <c r="W971" s="14"/>
-      <c r="X971" s="14"/>
-      <c r="Y971" s="14"/>
-      <c r="Z971" s="14"/>
-    </row>
-    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A972" s="12"/>
-      <c r="B972" s="13"/>
-      <c r="C972" s="12"/>
-      <c r="D972" s="14"/>
-      <c r="E972" s="14"/>
-      <c r="F972" s="14"/>
-      <c r="G972" s="14"/>
-      <c r="H972" s="14"/>
-      <c r="I972" s="14"/>
-      <c r="J972" s="14"/>
-      <c r="K972" s="14"/>
-      <c r="L972" s="14"/>
-      <c r="M972" s="14"/>
-      <c r="N972" s="14"/>
-      <c r="O972" s="14"/>
-      <c r="P972" s="14"/>
-      <c r="Q972" s="14"/>
-      <c r="R972" s="14"/>
-      <c r="S972" s="14"/>
-      <c r="T972" s="14"/>
-      <c r="U972" s="14"/>
-      <c r="V972" s="14"/>
-      <c r="W972" s="14"/>
-      <c r="X972" s="14"/>
-      <c r="Y972" s="14"/>
-      <c r="Z972" s="14"/>
-    </row>
-    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A973" s="12"/>
-      <c r="B973" s="13"/>
-      <c r="C973" s="12"/>
-      <c r="D973" s="14"/>
-      <c r="E973" s="14"/>
-      <c r="F973" s="14"/>
-      <c r="G973" s="14"/>
-      <c r="H973" s="14"/>
-      <c r="I973" s="14"/>
-      <c r="J973" s="14"/>
-      <c r="K973" s="14"/>
-      <c r="L973" s="14"/>
-      <c r="M973" s="14"/>
-      <c r="N973" s="14"/>
-      <c r="O973" s="14"/>
-      <c r="P973" s="14"/>
-      <c r="Q973" s="14"/>
-      <c r="R973" s="14"/>
-      <c r="S973" s="14"/>
-      <c r="T973" s="14"/>
-      <c r="U973" s="14"/>
-      <c r="V973" s="14"/>
-      <c r="W973" s="14"/>
-      <c r="X973" s="14"/>
-      <c r="Y973" s="14"/>
-      <c r="Z973" s="14"/>
-    </row>
-    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A974" s="12"/>
-      <c r="B974" s="13"/>
-      <c r="C974" s="12"/>
-      <c r="D974" s="14"/>
-      <c r="E974" s="14"/>
-      <c r="F974" s="14"/>
-      <c r="G974" s="14"/>
-      <c r="H974" s="14"/>
-      <c r="I974" s="14"/>
-      <c r="J974" s="14"/>
-      <c r="K974" s="14"/>
-      <c r="L974" s="14"/>
-      <c r="M974" s="14"/>
-      <c r="N974" s="14"/>
-      <c r="O974" s="14"/>
-      <c r="P974" s="14"/>
-      <c r="Q974" s="14"/>
-      <c r="R974" s="14"/>
-      <c r="S974" s="14"/>
-      <c r="T974" s="14"/>
-      <c r="U974" s="14"/>
-      <c r="V974" s="14"/>
-      <c r="W974" s="14"/>
-      <c r="X974" s="14"/>
-      <c r="Y974" s="14"/>
-      <c r="Z974" s="14"/>
-    </row>
-    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A975" s="12"/>
-      <c r="B975" s="13"/>
-      <c r="C975" s="12"/>
-      <c r="D975" s="14"/>
-      <c r="E975" s="14"/>
-      <c r="F975" s="14"/>
-      <c r="G975" s="14"/>
-      <c r="H975" s="14"/>
-      <c r="I975" s="14"/>
-      <c r="J975" s="14"/>
-      <c r="K975" s="14"/>
-      <c r="L975" s="14"/>
-      <c r="M975" s="14"/>
-      <c r="N975" s="14"/>
-      <c r="O975" s="14"/>
-      <c r="P975" s="14"/>
-      <c r="Q975" s="14"/>
-      <c r="R975" s="14"/>
-      <c r="S975" s="14"/>
-      <c r="T975" s="14"/>
-      <c r="U975" s="14"/>
-      <c r="V975" s="14"/>
-      <c r="W975" s="14"/>
-      <c r="X975" s="14"/>
-      <c r="Y975" s="14"/>
-      <c r="Z975" s="14"/>
-    </row>
-    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A976" s="12"/>
-      <c r="B976" s="13"/>
-      <c r="C976" s="12"/>
-      <c r="D976" s="14"/>
-      <c r="E976" s="14"/>
-      <c r="F976" s="14"/>
-      <c r="G976" s="14"/>
-      <c r="H976" s="14"/>
-      <c r="I976" s="14"/>
-      <c r="J976" s="14"/>
-      <c r="K976" s="14"/>
-      <c r="L976" s="14"/>
-      <c r="M976" s="14"/>
-      <c r="N976" s="14"/>
-      <c r="O976" s="14"/>
-      <c r="P976" s="14"/>
-      <c r="Q976" s="14"/>
-      <c r="R976" s="14"/>
-      <c r="S976" s="14"/>
-      <c r="T976" s="14"/>
-      <c r="U976" s="14"/>
-      <c r="V976" s="14"/>
-      <c r="W976" s="14"/>
-      <c r="X976" s="14"/>
-      <c r="Y976" s="14"/>
-      <c r="Z976" s="14"/>
-    </row>
-    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A977" s="12"/>
-      <c r="B977" s="13"/>
-      <c r="C977" s="12"/>
-      <c r="D977" s="14"/>
-      <c r="E977" s="14"/>
-      <c r="F977" s="14"/>
-      <c r="G977" s="14"/>
-      <c r="H977" s="14"/>
-      <c r="I977" s="14"/>
-      <c r="J977" s="14"/>
-      <c r="K977" s="14"/>
-      <c r="L977" s="14"/>
-      <c r="M977" s="14"/>
-      <c r="N977" s="14"/>
-      <c r="O977" s="14"/>
-      <c r="P977" s="14"/>
-      <c r="Q977" s="14"/>
-      <c r="R977" s="14"/>
-      <c r="S977" s="14"/>
-      <c r="T977" s="14"/>
-      <c r="U977" s="14"/>
-      <c r="V977" s="14"/>
-      <c r="W977" s="14"/>
-      <c r="X977" s="14"/>
-      <c r="Y977" s="14"/>
-      <c r="Z977" s="14"/>
-    </row>
-    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A978" s="12"/>
-      <c r="B978" s="13"/>
-      <c r="C978" s="12"/>
-      <c r="D978" s="14"/>
-      <c r="E978" s="14"/>
-      <c r="F978" s="14"/>
-      <c r="G978" s="14"/>
-      <c r="H978" s="14"/>
-      <c r="I978" s="14"/>
-      <c r="J978" s="14"/>
-      <c r="K978" s="14"/>
-      <c r="L978" s="14"/>
-      <c r="M978" s="14"/>
-      <c r="N978" s="14"/>
-      <c r="O978" s="14"/>
-      <c r="P978" s="14"/>
-      <c r="Q978" s="14"/>
-      <c r="R978" s="14"/>
-      <c r="S978" s="14"/>
-      <c r="T978" s="14"/>
-      <c r="U978" s="14"/>
-      <c r="V978" s="14"/>
-      <c r="W978" s="14"/>
-      <c r="X978" s="14"/>
-      <c r="Y978" s="14"/>
-      <c r="Z978" s="14"/>
-    </row>
-    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A979" s="12"/>
-      <c r="B979" s="13"/>
-      <c r="C979" s="12"/>
-      <c r="D979" s="14"/>
-      <c r="E979" s="14"/>
-      <c r="F979" s="14"/>
-      <c r="G979" s="14"/>
-      <c r="H979" s="14"/>
-      <c r="I979" s="14"/>
-      <c r="J979" s="14"/>
-      <c r="K979" s="14"/>
-      <c r="L979" s="14"/>
-      <c r="M979" s="14"/>
-      <c r="N979" s="14"/>
-      <c r="O979" s="14"/>
-      <c r="P979" s="14"/>
-      <c r="Q979" s="14"/>
-      <c r="R979" s="14"/>
-      <c r="S979" s="14"/>
-      <c r="T979" s="14"/>
-      <c r="U979" s="14"/>
-      <c r="V979" s="14"/>
-      <c r="W979" s="14"/>
-      <c r="X979" s="14"/>
-      <c r="Y979" s="14"/>
-      <c r="Z979" s="14"/>
-    </row>
-    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A980" s="12"/>
-      <c r="B980" s="13"/>
-      <c r="C980" s="12"/>
-      <c r="D980" s="14"/>
-      <c r="E980" s="14"/>
-      <c r="F980" s="14"/>
-      <c r="G980" s="14"/>
-      <c r="H980" s="14"/>
-      <c r="I980" s="14"/>
-      <c r="J980" s="14"/>
-      <c r="K980" s="14"/>
-      <c r="L980" s="14"/>
-      <c r="M980" s="14"/>
-      <c r="N980" s="14"/>
-      <c r="O980" s="14"/>
-      <c r="P980" s="14"/>
-      <c r="Q980" s="14"/>
-      <c r="R980" s="14"/>
-      <c r="S980" s="14"/>
-      <c r="T980" s="14"/>
-      <c r="U980" s="14"/>
-      <c r="V980" s="14"/>
-      <c r="W980" s="14"/>
-      <c r="X980" s="14"/>
-      <c r="Y980" s="14"/>
-      <c r="Z980" s="14"/>
-    </row>
-    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A981" s="12"/>
-      <c r="B981" s="13"/>
-      <c r="C981" s="12"/>
-      <c r="D981" s="14"/>
-      <c r="E981" s="14"/>
-      <c r="F981" s="14"/>
-      <c r="G981" s="14"/>
-      <c r="H981" s="14"/>
-      <c r="I981" s="14"/>
-      <c r="J981" s="14"/>
-      <c r="K981" s="14"/>
-      <c r="L981" s="14"/>
-      <c r="M981" s="14"/>
-      <c r="N981" s="14"/>
-      <c r="O981" s="14"/>
-      <c r="P981" s="14"/>
-      <c r="Q981" s="14"/>
-      <c r="R981" s="14"/>
-      <c r="S981" s="14"/>
-      <c r="T981" s="14"/>
-      <c r="U981" s="14"/>
-      <c r="V981" s="14"/>
-      <c r="W981" s="14"/>
-      <c r="X981" s="14"/>
-      <c r="Y981" s="14"/>
-      <c r="Z981" s="14"/>
-    </row>
-    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A982" s="12"/>
-      <c r="B982" s="13"/>
-      <c r="C982" s="12"/>
-      <c r="D982" s="14"/>
-      <c r="E982" s="14"/>
-      <c r="F982" s="14"/>
-      <c r="G982" s="14"/>
-      <c r="H982" s="14"/>
-      <c r="I982" s="14"/>
-      <c r="J982" s="14"/>
-      <c r="K982" s="14"/>
-      <c r="L982" s="14"/>
-      <c r="M982" s="14"/>
-      <c r="N982" s="14"/>
-      <c r="O982" s="14"/>
-      <c r="P982" s="14"/>
-      <c r="Q982" s="14"/>
-      <c r="R982" s="14"/>
-      <c r="S982" s="14"/>
-      <c r="T982" s="14"/>
-      <c r="U982" s="14"/>
-      <c r="V982" s="14"/>
-      <c r="W982" s="14"/>
-      <c r="X982" s="14"/>
-      <c r="Y982" s="14"/>
-      <c r="Z982" s="14"/>
-    </row>
-    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A983" s="12"/>
-      <c r="B983" s="13"/>
-      <c r="C983" s="12"/>
-      <c r="D983" s="14"/>
-      <c r="E983" s="14"/>
-      <c r="F983" s="14"/>
-      <c r="G983" s="14"/>
-      <c r="H983" s="14"/>
-      <c r="I983" s="14"/>
-      <c r="J983" s="14"/>
-      <c r="K983" s="14"/>
-      <c r="L983" s="14"/>
-      <c r="M983" s="14"/>
-      <c r="N983" s="14"/>
-      <c r="O983" s="14"/>
-      <c r="P983" s="14"/>
-      <c r="Q983" s="14"/>
-      <c r="R983" s="14"/>
-      <c r="S983" s="14"/>
-      <c r="T983" s="14"/>
-      <c r="U983" s="14"/>
-      <c r="V983" s="14"/>
-      <c r="W983" s="14"/>
-      <c r="X983" s="14"/>
-      <c r="Y983" s="14"/>
-      <c r="Z983" s="14"/>
-    </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A984" s="12"/>
-      <c r="B984" s="13"/>
-      <c r="C984" s="12"/>
-      <c r="D984" s="14"/>
-      <c r="E984" s="14"/>
-      <c r="F984" s="14"/>
-      <c r="G984" s="14"/>
-      <c r="H984" s="14"/>
-      <c r="I984" s="14"/>
-      <c r="J984" s="14"/>
-      <c r="K984" s="14"/>
-      <c r="L984" s="14"/>
-      <c r="M984" s="14"/>
-      <c r="N984" s="14"/>
-      <c r="O984" s="14"/>
-      <c r="P984" s="14"/>
-      <c r="Q984" s="14"/>
-      <c r="R984" s="14"/>
-      <c r="S984" s="14"/>
-      <c r="T984" s="14"/>
-      <c r="U984" s="14"/>
-      <c r="V984" s="14"/>
-      <c r="W984" s="14"/>
-      <c r="X984" s="14"/>
-      <c r="Y984" s="14"/>
-      <c r="Z984" s="14"/>
-    </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A985" s="12"/>
-      <c r="B985" s="13"/>
-      <c r="C985" s="12"/>
-      <c r="D985" s="14"/>
-      <c r="E985" s="14"/>
-      <c r="F985" s="14"/>
-      <c r="G985" s="14"/>
-      <c r="H985" s="14"/>
-      <c r="I985" s="14"/>
-      <c r="J985" s="14"/>
-      <c r="K985" s="14"/>
-      <c r="L985" s="14"/>
-      <c r="M985" s="14"/>
-      <c r="N985" s="14"/>
-      <c r="O985" s="14"/>
-      <c r="P985" s="14"/>
-      <c r="Q985" s="14"/>
-      <c r="R985" s="14"/>
-      <c r="S985" s="14"/>
-      <c r="T985" s="14"/>
-      <c r="U985" s="14"/>
-      <c r="V985" s="14"/>
-      <c r="W985" s="14"/>
-      <c r="X985" s="14"/>
-      <c r="Y985" s="14"/>
-      <c r="Z985" s="14"/>
-    </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="12"/>
-      <c r="B986" s="13"/>
-      <c r="C986" s="12"/>
-      <c r="D986" s="14"/>
-      <c r="E986" s="14"/>
-      <c r="F986" s="14"/>
-      <c r="G986" s="14"/>
-      <c r="H986" s="14"/>
-      <c r="I986" s="14"/>
-      <c r="J986" s="14"/>
-      <c r="K986" s="14"/>
-      <c r="L986" s="14"/>
-      <c r="M986" s="14"/>
-      <c r="N986" s="14"/>
-      <c r="O986" s="14"/>
-      <c r="P986" s="14"/>
-      <c r="Q986" s="14"/>
-      <c r="R986" s="14"/>
-      <c r="S986" s="14"/>
-      <c r="T986" s="14"/>
-      <c r="U986" s="14"/>
-      <c r="V986" s="14"/>
-      <c r="W986" s="14"/>
-      <c r="X986" s="14"/>
-      <c r="Y986" s="14"/>
-      <c r="Z986" s="14"/>
-    </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A987" s="12"/>
-      <c r="B987" s="13"/>
-      <c r="C987" s="12"/>
-      <c r="D987" s="14"/>
-      <c r="E987" s="14"/>
-      <c r="F987" s="14"/>
-      <c r="G987" s="14"/>
-      <c r="H987" s="14"/>
-      <c r="I987" s="14"/>
-      <c r="J987" s="14"/>
-      <c r="K987" s="14"/>
-      <c r="L987" s="14"/>
-      <c r="M987" s="14"/>
-      <c r="N987" s="14"/>
-      <c r="O987" s="14"/>
-      <c r="P987" s="14"/>
-      <c r="Q987" s="14"/>
-      <c r="R987" s="14"/>
-      <c r="S987" s="14"/>
-      <c r="T987" s="14"/>
-      <c r="U987" s="14"/>
-      <c r="V987" s="14"/>
-      <c r="W987" s="14"/>
-      <c r="X987" s="14"/>
-      <c r="Y987" s="14"/>
-      <c r="Z987" s="14"/>
-    </row>
-    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A988" s="12"/>
-      <c r="B988" s="13"/>
-      <c r="C988" s="12"/>
-      <c r="D988" s="14"/>
-      <c r="E988" s="14"/>
-      <c r="F988" s="14"/>
-      <c r="G988" s="14"/>
-      <c r="H988" s="14"/>
-      <c r="I988" s="14"/>
-      <c r="J988" s="14"/>
-      <c r="K988" s="14"/>
-      <c r="L988" s="14"/>
-      <c r="M988" s="14"/>
-      <c r="N988" s="14"/>
-      <c r="O988" s="14"/>
-      <c r="P988" s="14"/>
-      <c r="Q988" s="14"/>
-      <c r="R988" s="14"/>
-      <c r="S988" s="14"/>
-      <c r="T988" s="14"/>
-      <c r="U988" s="14"/>
-      <c r="V988" s="14"/>
-      <c r="W988" s="14"/>
-      <c r="X988" s="14"/>
-      <c r="Y988" s="14"/>
-      <c r="Z988" s="14"/>
-    </row>
-    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A989" s="12"/>
-      <c r="B989" s="13"/>
-      <c r="C989" s="12"/>
-      <c r="D989" s="14"/>
-      <c r="E989" s="14"/>
-      <c r="F989" s="14"/>
-      <c r="G989" s="14"/>
-      <c r="H989" s="14"/>
-      <c r="I989" s="14"/>
-      <c r="J989" s="14"/>
-      <c r="K989" s="14"/>
-      <c r="L989" s="14"/>
-      <c r="M989" s="14"/>
-      <c r="N989" s="14"/>
-      <c r="O989" s="14"/>
-      <c r="P989" s="14"/>
-      <c r="Q989" s="14"/>
-      <c r="R989" s="14"/>
-      <c r="S989" s="14"/>
-      <c r="T989" s="14"/>
-      <c r="U989" s="14"/>
-      <c r="V989" s="14"/>
-      <c r="W989" s="14"/>
-      <c r="X989" s="14"/>
-      <c r="Y989" s="14"/>
-      <c r="Z989" s="14"/>
-    </row>
-    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A990" s="12"/>
-      <c r="B990" s="13"/>
-      <c r="C990" s="12"/>
-      <c r="D990" s="14"/>
-      <c r="E990" s="14"/>
-      <c r="F990" s="14"/>
-      <c r="G990" s="14"/>
-      <c r="H990" s="14"/>
-      <c r="I990" s="14"/>
-      <c r="J990" s="14"/>
-      <c r="K990" s="14"/>
-      <c r="L990" s="14"/>
-      <c r="M990" s="14"/>
-      <c r="N990" s="14"/>
-      <c r="O990" s="14"/>
-      <c r="P990" s="14"/>
-      <c r="Q990" s="14"/>
-      <c r="R990" s="14"/>
-      <c r="S990" s="14"/>
-      <c r="T990" s="14"/>
-      <c r="U990" s="14"/>
-      <c r="V990" s="14"/>
-      <c r="W990" s="14"/>
-      <c r="X990" s="14"/>
-      <c r="Y990" s="14"/>
-      <c r="Z990" s="14"/>
-    </row>
-    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A991" s="12"/>
-      <c r="B991" s="13"/>
-      <c r="C991" s="12"/>
-      <c r="D991" s="14"/>
-      <c r="E991" s="14"/>
-      <c r="F991" s="14"/>
-      <c r="G991" s="14"/>
-      <c r="H991" s="14"/>
-      <c r="I991" s="14"/>
-      <c r="J991" s="14"/>
-      <c r="K991" s="14"/>
-      <c r="L991" s="14"/>
-      <c r="M991" s="14"/>
-      <c r="N991" s="14"/>
-      <c r="O991" s="14"/>
-      <c r="P991" s="14"/>
-      <c r="Q991" s="14"/>
-      <c r="R991" s="14"/>
-      <c r="S991" s="14"/>
-      <c r="T991" s="14"/>
-      <c r="U991" s="14"/>
-      <c r="V991" s="14"/>
-      <c r="W991" s="14"/>
-      <c r="X991" s="14"/>
-      <c r="Y991" s="14"/>
-      <c r="Z991" s="14"/>
-    </row>
-    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A992" s="12"/>
-      <c r="B992" s="13"/>
-      <c r="C992" s="12"/>
-      <c r="D992" s="14"/>
-      <c r="E992" s="14"/>
-      <c r="F992" s="14"/>
-      <c r="G992" s="14"/>
-      <c r="H992" s="14"/>
-      <c r="I992" s="14"/>
-      <c r="J992" s="14"/>
-      <c r="K992" s="14"/>
-      <c r="L992" s="14"/>
-      <c r="M992" s="14"/>
-      <c r="N992" s="14"/>
-      <c r="O992" s="14"/>
-      <c r="P992" s="14"/>
-      <c r="Q992" s="14"/>
-      <c r="R992" s="14"/>
-      <c r="S992" s="14"/>
-      <c r="T992" s="14"/>
-      <c r="U992" s="14"/>
-      <c r="V992" s="14"/>
-      <c r="W992" s="14"/>
-      <c r="X992" s="14"/>
-      <c r="Y992" s="14"/>
-      <c r="Z992" s="14"/>
-    </row>
-    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A993" s="12"/>
-      <c r="B993" s="13"/>
-      <c r="C993" s="12"/>
-      <c r="D993" s="14"/>
-      <c r="E993" s="14"/>
-      <c r="F993" s="14"/>
-      <c r="G993" s="14"/>
-      <c r="H993" s="14"/>
-      <c r="I993" s="14"/>
-      <c r="J993" s="14"/>
-      <c r="K993" s="14"/>
-      <c r="L993" s="14"/>
-      <c r="M993" s="14"/>
-      <c r="N993" s="14"/>
-      <c r="O993" s="14"/>
-      <c r="P993" s="14"/>
-      <c r="Q993" s="14"/>
-      <c r="R993" s="14"/>
-      <c r="S993" s="14"/>
-      <c r="T993" s="14"/>
-      <c r="U993" s="14"/>
-      <c r="V993" s="14"/>
-      <c r="W993" s="14"/>
-      <c r="X993" s="14"/>
-      <c r="Y993" s="14"/>
-      <c r="Z993" s="14"/>
-    </row>
-    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A994" s="12"/>
-      <c r="B994" s="13"/>
-      <c r="C994" s="12"/>
-      <c r="D994" s="14"/>
-      <c r="E994" s="14"/>
-      <c r="F994" s="14"/>
-      <c r="G994" s="14"/>
-      <c r="H994" s="14"/>
-      <c r="I994" s="14"/>
-      <c r="J994" s="14"/>
-      <c r="K994" s="14"/>
-      <c r="L994" s="14"/>
-      <c r="M994" s="14"/>
-      <c r="N994" s="14"/>
-      <c r="O994" s="14"/>
-      <c r="P994" s="14"/>
-      <c r="Q994" s="14"/>
-      <c r="R994" s="14"/>
-      <c r="S994" s="14"/>
-      <c r="T994" s="14"/>
-      <c r="U994" s="14"/>
-      <c r="V994" s="14"/>
-      <c r="W994" s="14"/>
-      <c r="X994" s="14"/>
-      <c r="Y994" s="14"/>
-      <c r="Z994" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/data-raw/metadata/camp_trap_metadata.xlsx
+++ b/data-raw/metadata/camp_trap_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC3BD00-3B07-B341-876F-B0D8830FE130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906662FB-ACE8-B340-9CF4-4DBABB0CFABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="144">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -135,12 +135,6 @@
     <t>Date and time of day associated with the trap visit. Definition varies based on visitType (For visitTypeID=1, 2, or 3 this is the date and the time of day the trap began fishing. For visitTypeID=4, 5, or 6 this is the date and the time of day of the end of the visit.)</t>
   </si>
   <si>
-    <t>inThalwegID</t>
-  </si>
-  <si>
-    <t>Code for whether trap was sampling in the thalweg of the stream at the beginning of the trap visit (luNoYes)</t>
-  </si>
-  <si>
     <t>counterAtStart</t>
   </si>
   <si>
@@ -195,12 +189,6 @@
     <t>Volume of debris removed from trap live box</t>
   </si>
   <si>
-    <t>debrisVolumeUnits</t>
-  </si>
-  <si>
-    <t>Units used for the volume of debris removed from livebox</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -214,12 +202,6 @@
   </si>
   <si>
     <t>Not applicable (n/a)</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -441,9 +423,6 @@
     <t>2022-05-18 02:30:56</t>
   </si>
   <si>
-    <t>see unit column</t>
-  </si>
-  <si>
     <t>Knights Landing RST Program</t>
   </si>
   <si>
@@ -486,6 +465,15 @@
   </si>
   <si>
     <t>Whether this record is considered of high enough quality to include in analysis. Levels = c("Yes", "No")</t>
+  </si>
+  <si>
+    <t>cubicMeter</t>
+  </si>
+  <si>
+    <t>inThalweg</t>
+  </si>
+  <si>
+    <t>Whether trap was sampling in the thalweg of the stream at the beginning of the trap visit.</t>
   </si>
 </sst>
 </file>
@@ -813,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1067,10 +1055,10 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1111,10 +1099,10 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1130,7 +1118,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -1138,22 +1126,32 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>18326</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1168,30 +1166,30 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
@@ -1200,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>18326</v>
+        <v>32404</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1224,22 +1222,22 @@
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
@@ -1248,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>32404</v>
+        <v>5</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1266,28 +1264,28 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -1296,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1317,25 +1315,25 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -1344,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1362,28 +1360,28 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1392,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1416,22 +1414,22 @@
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -1440,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1458,38 +1456,28 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1504,12 +1492,12 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1544,10 +1532,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -1580,12 +1568,12 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1620,10 +1608,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -1658,10 +1646,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -1696,10 +1684,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
@@ -1733,21 +1721,11 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2219,7 +2197,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -2247,7 +2225,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -2331,7 +2309,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2359,7 +2337,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -3283,7 +3261,7 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
+      <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -3311,7 +3289,7 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
+      <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -29210,78 +29188,22 @@
       <c r="Y1002" s="1"/>
       <c r="Z1002" s="1"/>
     </row>
-    <row r="1003" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="2"/>
-      <c r="E1003" s="1"/>
-      <c r="F1003" s="3"/>
-      <c r="G1003" s="3"/>
-      <c r="H1003" s="3"/>
-      <c r="I1003" s="2"/>
-      <c r="J1003" s="3"/>
-      <c r="K1003" s="2"/>
-      <c r="L1003" s="3"/>
-      <c r="M1003" s="3"/>
-      <c r="N1003" s="1"/>
-      <c r="O1003" s="1"/>
-      <c r="P1003" s="1"/>
-      <c r="Q1003" s="1"/>
-      <c r="R1003" s="1"/>
-      <c r="S1003" s="1"/>
-      <c r="T1003" s="1"/>
-      <c r="U1003" s="1"/>
-      <c r="V1003" s="1"/>
-      <c r="W1003" s="1"/>
-      <c r="X1003" s="1"/>
-      <c r="Y1003" s="1"/>
-      <c r="Z1003" s="1"/>
-    </row>
-    <row r="1004" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1004" s="1"/>
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="1"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="1"/>
-      <c r="F1004" s="3"/>
-      <c r="G1004" s="3"/>
-      <c r="H1004" s="3"/>
-      <c r="I1004" s="2"/>
-      <c r="J1004" s="3"/>
-      <c r="K1004" s="2"/>
-      <c r="L1004" s="3"/>
-      <c r="M1004" s="3"/>
-      <c r="N1004" s="1"/>
-      <c r="O1004" s="1"/>
-      <c r="P1004" s="1"/>
-      <c r="Q1004" s="1"/>
-      <c r="R1004" s="1"/>
-      <c r="S1004" s="1"/>
-      <c r="T1004" s="1"/>
-      <c r="U1004" s="1"/>
-      <c r="V1004" s="1"/>
-      <c r="W1004" s="1"/>
-      <c r="X1004" s="1"/>
-      <c r="Y1004" s="1"/>
-      <c r="Z1004" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E21 E22:E1004" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1002" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F21 F22:F1004" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1002" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C61:C1004 C1:C21 C22:C49" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C59:C1002 C1:C47" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H21 H22:H1004" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1002" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29292,10 +29214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z961"/>
+  <dimension ref="A1:Z958"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29308,13 +29230,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -29345,7 +29267,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -29375,14 +29297,14 @@
       <c r="Z2" s="14"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>1</v>
+      <c r="A3" s="15">
+        <v>3000</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>59</v>
+      <c r="B3" s="15" t="s">
+        <v>57</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
+      <c r="C3" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -29409,14 +29331,14 @@
       <c r="Z3" s="14"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>2</v>
+      <c r="A4" s="15">
+        <v>44000</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>60</v>
+      <c r="B4" s="15" t="s">
+        <v>58</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
+      <c r="C4" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -29443,14 +29365,14 @@
       <c r="Z4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>251</v>
+      <c r="A5" s="15">
+        <v>52000</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>57</v>
+      <c r="B5" s="15" t="s">
+        <v>59</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
+      <c r="C5" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -29478,10 +29400,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
-        <v>3000</v>
+        <v>51000</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>22</v>
@@ -29512,10 +29434,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
-        <v>44000</v>
+        <v>5000</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>22</v>
@@ -29546,10 +29468,10 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
-        <v>52000</v>
+        <v>46000</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>22</v>
@@ -29580,10 +29502,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
-        <v>51000</v>
+        <v>4000</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>22</v>
@@ -29614,10 +29536,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
-        <v>5000</v>
+        <v>45000</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>22</v>
@@ -29648,10 +29570,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
-        <v>46000</v>
+        <v>252</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>22</v>
@@ -29682,10 +29604,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
-        <v>4000</v>
+        <v>251</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>22</v>
@@ -29716,10 +29638,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
-        <v>45000</v>
+        <v>255</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>22</v>
@@ -29750,10 +29672,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
-        <v>252</v>
+        <v>53000</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>22</v>
@@ -29784,10 +29706,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
-        <v>251</v>
+        <v>54000</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>22</v>
@@ -29818,10 +29740,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
-        <v>255</v>
+        <v>55000</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>22</v>
@@ -29852,10 +29774,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
-        <v>53000</v>
+        <v>56000</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>22</v>
@@ -29886,10 +29808,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
-        <v>54000</v>
+        <v>50000</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>22</v>
@@ -29920,10 +29842,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
-        <v>55000</v>
+        <v>7000</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>22</v>
@@ -29954,10 +29876,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
-        <v>56000</v>
+        <v>2000</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>22</v>
@@ -29988,10 +29910,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
-        <v>50000</v>
+        <v>43000</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>22</v>
@@ -30022,10 +29944,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>22</v>
@@ -30056,10 +29978,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
-        <v>2000</v>
+        <v>47000</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>22</v>
@@ -30090,10 +30012,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
-        <v>43000</v>
+        <v>90000</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>22</v>
@@ -30124,10 +30046,10 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
-        <v>6000</v>
+        <v>253</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>22</v>
@@ -30158,13 +30080,13 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
-        <v>47000</v>
+        <v>2001</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -30192,13 +30114,13 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
-        <v>90000</v>
+        <v>44018</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -30226,13 +30148,13 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
-        <v>253</v>
+        <v>44007</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -30260,10 +30182,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
-        <v>2001</v>
+        <v>44017</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>24</v>
@@ -30294,10 +30216,10 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>24</v>
@@ -30328,10 +30250,10 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
-        <v>44007</v>
+        <v>44013</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>24</v>
@@ -30362,10 +30284,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
-        <v>44017</v>
+        <v>3001</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>24</v>
@@ -30396,10 +30318,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
-        <v>44016</v>
+        <v>3002</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>24</v>
@@ -30430,10 +30352,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
-        <v>44013</v>
+        <v>52003</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>24</v>
@@ -30464,10 +30386,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
-        <v>3001</v>
+        <v>51002</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>24</v>
@@ -30498,10 +30420,10 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
-        <v>3002</v>
+        <v>51003</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>24</v>
@@ -30532,10 +30454,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
-        <v>52003</v>
+        <v>52001</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>24</v>
@@ -30566,10 +30488,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
-        <v>51002</v>
+        <v>52002</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>24</v>
@@ -30600,10 +30522,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
-        <v>51003</v>
+        <v>52004</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>24</v>
@@ -30634,10 +30556,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
-        <v>52001</v>
+        <v>90001</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>24</v>
@@ -30668,10 +30590,10 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
-        <v>52002</v>
+        <v>46003</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>24</v>
@@ -30702,10 +30624,10 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
-        <v>52004</v>
+        <v>46001</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>24</v>
@@ -30736,10 +30658,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
-        <v>90001</v>
+        <v>46004</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>24</v>
@@ -30770,10 +30692,10 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
-        <v>46003</v>
+        <v>5001</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>24</v>
@@ -30804,10 +30726,10 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
-        <v>46001</v>
+        <v>5003</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>24</v>
@@ -30838,10 +30760,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
-        <v>46004</v>
+        <v>5002</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>24</v>
@@ -30872,10 +30794,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>24</v>
@@ -30906,10 +30828,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
-        <v>5003</v>
+        <v>4002</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>24</v>
@@ -30940,10 +30862,10 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
-        <v>5002</v>
+        <v>44010</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>24</v>
@@ -30974,10 +30896,10 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
-        <v>4001</v>
+        <v>51001</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>24</v>
@@ -31008,10 +30930,10 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
-        <v>4002</v>
+        <v>46002</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>24</v>
@@ -31042,10 +30964,10 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
-        <v>44010</v>
+        <v>43000</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>24</v>
@@ -31076,10 +30998,10 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
-        <v>51001</v>
+        <v>44000</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>24</v>
@@ -31110,10 +31032,10 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
-        <v>46002</v>
+        <v>45000</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>24</v>
@@ -31144,10 +31066,10 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
-        <v>43000</v>
+        <v>46000</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>24</v>
@@ -31178,10 +31100,10 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
-        <v>44000</v>
+        <v>47000</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>24</v>
@@ -31212,10 +31134,10 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>24</v>
@@ -31246,10 +31168,10 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
-        <v>46000</v>
+        <v>51000</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>24</v>
@@ -31280,10 +31202,10 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
-        <v>47000</v>
+        <v>52000</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>24</v>
@@ -31314,10 +31236,10 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
-        <v>50000</v>
+        <v>53000</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>24</v>
@@ -31348,10 +31270,10 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
-        <v>51000</v>
+        <v>54000</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>24</v>
@@ -31382,10 +31304,10 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
-        <v>52000</v>
+        <v>55000</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>24</v>
@@ -31416,10 +31338,10 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
-        <v>53000</v>
+        <v>56000</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>24</v>
@@ -31450,10 +31372,10 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
-        <v>54000</v>
+        <v>90000</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>24</v>
@@ -31484,10 +31406,10 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
-        <v>55000</v>
+        <v>44001</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>24</v>
@@ -31518,10 +31440,10 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
-        <v>56000</v>
+        <v>44003</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>24</v>
@@ -31552,10 +31474,10 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
-        <v>90000</v>
+        <v>44002</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>24</v>
@@ -31586,10 +31508,10 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>24</v>
@@ -31620,10 +31542,10 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
-        <v>44003</v>
+        <v>47002</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>24</v>
@@ -31654,10 +31576,10 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
-        <v>44002</v>
+        <v>47001</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>24</v>
@@ -31688,10 +31610,10 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
-        <v>44004</v>
+        <v>44009</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>24</v>
@@ -31722,10 +31644,10 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
-        <v>47002</v>
+        <v>44006</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>24</v>
@@ -31756,10 +31678,10 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
-        <v>47001</v>
+        <v>44008</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>24</v>
@@ -31790,10 +31712,10 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
-        <v>44009</v>
+        <v>7002</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>24</v>
@@ -31824,10 +31746,10 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
-        <v>44006</v>
+        <v>7003</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>24</v>
@@ -31858,10 +31780,10 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
-        <v>44008</v>
+        <v>44012</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>24</v>
@@ -31892,10 +31814,10 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
-        <v>7002</v>
+        <v>44014</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>24</v>
@@ -31926,10 +31848,10 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
-        <v>7003</v>
+        <v>44011</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>24</v>
@@ -31960,10 +31882,10 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
-        <v>44012</v>
+        <v>44015</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>24</v>
@@ -31994,10 +31916,10 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
-        <v>44014</v>
+        <v>44005</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>24</v>
@@ -32028,10 +31950,10 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
-        <v>44011</v>
+        <v>43001</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>24</v>
@@ -32062,10 +31984,10 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
-        <v>44015</v>
+        <v>2004</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>24</v>
@@ -32096,10 +32018,10 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
-        <v>44005</v>
+        <v>2003</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>24</v>
@@ -32130,10 +32052,10 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
-        <v>43001</v>
+        <v>2002</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>24</v>
@@ -32164,10 +32086,10 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>24</v>
@@ -32198,10 +32120,10 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
-        <v>2003</v>
+        <v>6002</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>24</v>
@@ -32232,10 +32154,10 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15">
-        <v>2002</v>
+        <v>6003</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>24</v>
@@ -32265,15 +32187,9 @@
       <c r="Z87" s="14"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="15">
-        <v>2005</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="12"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
@@ -32299,15 +32215,9 @@
       <c r="Z88" s="14"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="15">
-        <v>6002</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="12"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
@@ -32333,15 +32243,9 @@
       <c r="Z89" s="14"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="15">
-        <v>6003</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="12"/>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
@@ -56670,90 +56574,6 @@
       <c r="Y958" s="14"/>
       <c r="Z958" s="14"/>
     </row>
-    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A959" s="12"/>
-      <c r="B959" s="13"/>
-      <c r="C959" s="12"/>
-      <c r="D959" s="14"/>
-      <c r="E959" s="14"/>
-      <c r="F959" s="14"/>
-      <c r="G959" s="14"/>
-      <c r="H959" s="14"/>
-      <c r="I959" s="14"/>
-      <c r="J959" s="14"/>
-      <c r="K959" s="14"/>
-      <c r="L959" s="14"/>
-      <c r="M959" s="14"/>
-      <c r="N959" s="14"/>
-      <c r="O959" s="14"/>
-      <c r="P959" s="14"/>
-      <c r="Q959" s="14"/>
-      <c r="R959" s="14"/>
-      <c r="S959" s="14"/>
-      <c r="T959" s="14"/>
-      <c r="U959" s="14"/>
-      <c r="V959" s="14"/>
-      <c r="W959" s="14"/>
-      <c r="X959" s="14"/>
-      <c r="Y959" s="14"/>
-      <c r="Z959" s="14"/>
-    </row>
-    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A960" s="12"/>
-      <c r="B960" s="13"/>
-      <c r="C960" s="12"/>
-      <c r="D960" s="14"/>
-      <c r="E960" s="14"/>
-      <c r="F960" s="14"/>
-      <c r="G960" s="14"/>
-      <c r="H960" s="14"/>
-      <c r="I960" s="14"/>
-      <c r="J960" s="14"/>
-      <c r="K960" s="14"/>
-      <c r="L960" s="14"/>
-      <c r="M960" s="14"/>
-      <c r="N960" s="14"/>
-      <c r="O960" s="14"/>
-      <c r="P960" s="14"/>
-      <c r="Q960" s="14"/>
-      <c r="R960" s="14"/>
-      <c r="S960" s="14"/>
-      <c r="T960" s="14"/>
-      <c r="U960" s="14"/>
-      <c r="V960" s="14"/>
-      <c r="W960" s="14"/>
-      <c r="X960" s="14"/>
-      <c r="Y960" s="14"/>
-      <c r="Z960" s="14"/>
-    </row>
-    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A961" s="12"/>
-      <c r="B961" s="13"/>
-      <c r="C961" s="12"/>
-      <c r="D961" s="14"/>
-      <c r="E961" s="14"/>
-      <c r="F961" s="14"/>
-      <c r="G961" s="14"/>
-      <c r="H961" s="14"/>
-      <c r="I961" s="14"/>
-      <c r="J961" s="14"/>
-      <c r="K961" s="14"/>
-      <c r="L961" s="14"/>
-      <c r="M961" s="14"/>
-      <c r="N961" s="14"/>
-      <c r="O961" s="14"/>
-      <c r="P961" s="14"/>
-      <c r="Q961" s="14"/>
-      <c r="R961" s="14"/>
-      <c r="S961" s="14"/>
-      <c r="T961" s="14"/>
-      <c r="U961" s="14"/>
-      <c r="V961" s="14"/>
-      <c r="W961" s="14"/>
-      <c r="X961" s="14"/>
-      <c r="Y961" s="14"/>
-      <c r="Z961" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
